--- a/2025-biochem_molbio_score.xlsx
+++ b/2025-biochem_molbio_score.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YLC/Library/CloudStorage/SynologyDrive-YLC/00_myApp/pa_mvp_bundle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFFB20-E91C-074B-9C42-D98BD1094956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3634609-3315-3745-9FFE-90BD5978A2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3540" windowWidth="24600" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
     <sheet name="biochem" sheetId="5" r:id="rId2"/>
     <sheet name="mol" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">score!$A$1:$E$919</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -1449,6 +1452,12 @@
   </si>
   <si>
     <t>蘇筠雅</t>
+  </si>
+  <si>
+    <t>409010037</t>
+  </si>
+  <si>
+    <t>王紹安</t>
   </si>
 </sst>
 </file>
@@ -5956,7 +5965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6535B6E-0B63-114E-8968-836A43392DC8}" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6535B6E-0B63-114E-8968-836A43392DC8}" name="樞紐分析表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D233" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6997,7 +7006,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619949F5-B22B-3B48-986B-BF68DA2D0B4C}" name="樞紐分析表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619949F5-B22B-3B48-986B-BF68DA2D0B4C}" name="樞紐分析表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:D233" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -8288,10 +8297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E687"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="D673" sqref="D673"/>
+      <selection activeCell="D694" sqref="D694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8317,16 +8327,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>460</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>80</v>
       </c>
@@ -8334,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8351,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8368,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8377,9 +8384,6 @@
       </c>
       <c r="C5">
         <v>30</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8395,14 +8399,11 @@
       <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -8980,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -9320,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10068,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10221,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -10289,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -10340,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -10442,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -10459,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -10561,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -10782,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -10816,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -10884,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -10918,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -10986,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11020,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11394,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -11496,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -11530,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -11717,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -11768,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -11921,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12057,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12091,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12108,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12125,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -12193,16 +12194,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" t="s">
         <v>1</v>
       </c>
       <c r="B230" t="s">
         <v>460</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
       <c r="D230">
         <v>60</v>
       </c>
@@ -12210,7 +12208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -12227,7 +12225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -12253,9 +12251,6 @@
       </c>
       <c r="C233">
         <v>30</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -12271,14 +12266,11 @@
       <c r="C234">
         <v>50</v>
       </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
       <c r="E234">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -12295,7 +12287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -12312,7 +12304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -12329,7 +12321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -12346,7 +12338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -12363,7 +12355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -12380,7 +12372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -12397,7 +12389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -12414,7 +12406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -12431,7 +12423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -12448,7 +12440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -12465,7 +12457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -12482,7 +12474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -12499,7 +12491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -12516,7 +12508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -12533,7 +12525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -12550,7 +12542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -12567,7 +12559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -12584,7 +12576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -12601,7 +12593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" t="s">
         <v>25</v>
       </c>
@@ -12618,7 +12610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -12635,7 +12627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -12652,7 +12644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" t="s">
         <v>28</v>
       </c>
@@ -12669,7 +12661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" t="s">
         <v>29</v>
       </c>
@@ -12686,7 +12678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" t="s">
         <v>30</v>
       </c>
@@ -12703,7 +12695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" t="s">
         <v>31</v>
       </c>
@@ -12720,7 +12712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -12737,7 +12729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" t="s">
         <v>33</v>
       </c>
@@ -12754,7 +12746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" t="s">
         <v>34</v>
       </c>
@@ -12771,7 +12763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" t="s">
         <v>35</v>
       </c>
@@ -12788,7 +12780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" t="s">
         <v>36</v>
       </c>
@@ -12805,7 +12797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" t="s">
         <v>37</v>
       </c>
@@ -12822,7 +12814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" t="s">
         <v>38</v>
       </c>
@@ -12839,7 +12831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -12856,7 +12848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -12873,7 +12865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" t="s">
         <v>41</v>
       </c>
@@ -12890,7 +12882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" t="s">
         <v>42</v>
       </c>
@@ -12907,7 +12899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" t="s">
         <v>43</v>
       </c>
@@ -12924,7 +12916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" t="s">
         <v>44</v>
       </c>
@@ -12941,7 +12933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" t="s">
         <v>45</v>
       </c>
@@ -12958,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" t="s">
         <v>46</v>
       </c>
@@ -12975,7 +12967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" t="s">
         <v>47</v>
       </c>
@@ -12992,7 +12984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" t="s">
         <v>48</v>
       </c>
@@ -13009,7 +13001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" t="s">
         <v>49</v>
       </c>
@@ -13026,7 +13018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" t="s">
         <v>50</v>
       </c>
@@ -13043,7 +13035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -13060,7 +13052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" t="s">
         <v>52</v>
       </c>
@@ -13077,7 +13069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" t="s">
         <v>53</v>
       </c>
@@ -13094,7 +13086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" t="s">
         <v>54</v>
       </c>
@@ -13111,7 +13103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" t="s">
         <v>55</v>
       </c>
@@ -13128,7 +13120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" t="s">
         <v>56</v>
       </c>
@@ -13145,7 +13137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" t="s">
         <v>57</v>
       </c>
@@ -13162,7 +13154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" t="s">
         <v>58</v>
       </c>
@@ -13179,7 +13171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" t="s">
         <v>59</v>
       </c>
@@ -13196,7 +13188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
         <v>60</v>
       </c>
@@ -13213,7 +13205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>61</v>
       </c>
@@ -13230,7 +13222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" t="s">
         <v>62</v>
       </c>
@@ -13247,7 +13239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
         <v>63</v>
       </c>
@@ -13264,7 +13256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
         <v>64</v>
       </c>
@@ -13281,7 +13273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
         <v>65</v>
       </c>
@@ -13298,7 +13290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
         <v>66</v>
       </c>
@@ -13315,7 +13307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>67</v>
       </c>
@@ -13332,7 +13324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>68</v>
       </c>
@@ -13349,7 +13341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" t="s">
         <v>69</v>
       </c>
@@ -13366,7 +13358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>70</v>
       </c>
@@ -13383,7 +13375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>71</v>
       </c>
@@ -13400,7 +13392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>72</v>
       </c>
@@ -13417,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>73</v>
       </c>
@@ -13434,7 +13426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>74</v>
       </c>
@@ -13451,7 +13443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>75</v>
       </c>
@@ -13468,7 +13460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" t="s">
         <v>76</v>
       </c>
@@ -13485,7 +13477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" t="s">
         <v>77</v>
       </c>
@@ -13502,7 +13494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" t="s">
         <v>78</v>
       </c>
@@ -13519,7 +13511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -13536,7 +13528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" t="s">
         <v>80</v>
       </c>
@@ -13553,7 +13545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" t="s">
         <v>81</v>
       </c>
@@ -13570,7 +13562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" t="s">
         <v>82</v>
       </c>
@@ -13587,7 +13579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" t="s">
         <v>83</v>
       </c>
@@ -13604,7 +13596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" t="s">
         <v>84</v>
       </c>
@@ -13621,7 +13613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" t="s">
         <v>85</v>
       </c>
@@ -13638,7 +13630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" t="s">
         <v>86</v>
       </c>
@@ -13655,7 +13647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" t="s">
         <v>87</v>
       </c>
@@ -13672,7 +13664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" t="s">
         <v>88</v>
       </c>
@@ -13689,7 +13681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" t="s">
         <v>89</v>
       </c>
@@ -13706,7 +13698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" t="s">
         <v>90</v>
       </c>
@@ -13723,7 +13715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" t="s">
         <v>91</v>
       </c>
@@ -13740,7 +13732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" t="s">
         <v>92</v>
       </c>
@@ -13757,7 +13749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" t="s">
         <v>93</v>
       </c>
@@ -13774,7 +13766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" t="s">
         <v>94</v>
       </c>
@@ -13791,7 +13783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" t="s">
         <v>95</v>
       </c>
@@ -13808,7 +13800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" t="s">
         <v>96</v>
       </c>
@@ -13825,7 +13817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" t="s">
         <v>97</v>
       </c>
@@ -13842,7 +13834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" t="s">
         <v>98</v>
       </c>
@@ -13859,7 +13851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -13876,7 +13868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" t="s">
         <v>100</v>
       </c>
@@ -13893,7 +13885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" t="s">
         <v>101</v>
       </c>
@@ -13910,7 +13902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" t="s">
         <v>102</v>
       </c>
@@ -13927,7 +13919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" t="s">
         <v>103</v>
       </c>
@@ -13944,7 +13936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" t="s">
         <v>104</v>
       </c>
@@ -13961,7 +13953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" t="s">
         <v>105</v>
       </c>
@@ -13978,7 +13970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" t="s">
         <v>106</v>
       </c>
@@ -13995,7 +13987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" t="s">
         <v>107</v>
       </c>
@@ -14012,7 +14004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" t="s">
         <v>108</v>
       </c>
@@ -14029,7 +14021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" t="s">
         <v>109</v>
       </c>
@@ -14046,7 +14038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" t="s">
         <v>110</v>
       </c>
@@ -14063,7 +14055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" t="s">
         <v>111</v>
       </c>
@@ -14080,7 +14072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" t="s">
         <v>112</v>
       </c>
@@ -14097,7 +14089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" t="s">
         <v>113</v>
       </c>
@@ -14114,7 +14106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" t="s">
         <v>114</v>
       </c>
@@ -14131,7 +14123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" t="s">
         <v>115</v>
       </c>
@@ -14148,7 +14140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" t="s">
         <v>116</v>
       </c>
@@ -14165,7 +14157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" t="s">
         <v>117</v>
       </c>
@@ -14182,7 +14174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" t="s">
         <v>118</v>
       </c>
@@ -14199,7 +14191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" t="s">
         <v>119</v>
       </c>
@@ -14216,7 +14208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" t="s">
         <v>120</v>
       </c>
@@ -14233,7 +14225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" t="s">
         <v>121</v>
       </c>
@@ -14250,7 +14242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" t="s">
         <v>122</v>
       </c>
@@ -14267,7 +14259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" t="s">
         <v>123</v>
       </c>
@@ -14284,7 +14276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" t="s">
         <v>124</v>
       </c>
@@ -14301,7 +14293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" t="s">
         <v>125</v>
       </c>
@@ -14318,7 +14310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" t="s">
         <v>126</v>
       </c>
@@ -14335,7 +14327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" t="s">
         <v>127</v>
       </c>
@@ -14352,7 +14344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" t="s">
         <v>128</v>
       </c>
@@ -14369,7 +14361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" t="s">
         <v>129</v>
       </c>
@@ -14386,7 +14378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" t="s">
         <v>130</v>
       </c>
@@ -14403,7 +14395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" t="s">
         <v>131</v>
       </c>
@@ -14420,7 +14412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" t="s">
         <v>132</v>
       </c>
@@ -14437,7 +14429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" t="s">
         <v>133</v>
       </c>
@@ -14454,7 +14446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" t="s">
         <v>134</v>
       </c>
@@ -14471,7 +14463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" t="s">
         <v>135</v>
       </c>
@@ -14488,7 +14480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" t="s">
         <v>136</v>
       </c>
@@ -14505,7 +14497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" t="s">
         <v>137</v>
       </c>
@@ -14522,7 +14514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" t="s">
         <v>138</v>
       </c>
@@ -14539,7 +14531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" t="s">
         <v>139</v>
       </c>
@@ -14556,7 +14548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" t="s">
         <v>140</v>
       </c>
@@ -14573,7 +14565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" t="s">
         <v>141</v>
       </c>
@@ -14590,7 +14582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" t="s">
         <v>142</v>
       </c>
@@ -14607,7 +14599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" t="s">
         <v>143</v>
       </c>
@@ -14624,7 +14616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" t="s">
         <v>144</v>
       </c>
@@ -14641,7 +14633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" t="s">
         <v>145</v>
       </c>
@@ -14658,7 +14650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" t="s">
         <v>146</v>
       </c>
@@ -14675,7 +14667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" t="s">
         <v>147</v>
       </c>
@@ -14692,7 +14684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" t="s">
         <v>148</v>
       </c>
@@ -14709,7 +14701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" t="s">
         <v>149</v>
       </c>
@@ -14726,7 +14718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" t="s">
         <v>150</v>
       </c>
@@ -14743,7 +14735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" t="s">
         <v>151</v>
       </c>
@@ -14760,7 +14752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381" t="s">
         <v>152</v>
       </c>
@@ -14777,7 +14769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -14794,7 +14786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" t="s">
         <v>154</v>
       </c>
@@ -14811,7 +14803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" t="s">
         <v>155</v>
       </c>
@@ -14828,7 +14820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" t="s">
         <v>156</v>
       </c>
@@ -14845,7 +14837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386" t="s">
         <v>157</v>
       </c>
@@ -14862,7 +14854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" t="s">
         <v>158</v>
       </c>
@@ -14879,7 +14871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" t="s">
         <v>159</v>
       </c>
@@ -14896,7 +14888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" t="s">
         <v>160</v>
       </c>
@@ -14913,7 +14905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" t="s">
         <v>161</v>
       </c>
@@ -14930,7 +14922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" t="s">
         <v>162</v>
       </c>
@@ -14947,7 +14939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" t="s">
         <v>163</v>
       </c>
@@ -14964,7 +14956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" t="s">
         <v>164</v>
       </c>
@@ -14981,7 +14973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" t="s">
         <v>165</v>
       </c>
@@ -14998,7 +14990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" t="s">
         <v>166</v>
       </c>
@@ -15015,7 +15007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" t="s">
         <v>167</v>
       </c>
@@ -15032,7 +15024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" t="s">
         <v>168</v>
       </c>
@@ -15049,7 +15041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" t="s">
         <v>169</v>
       </c>
@@ -15066,7 +15058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" t="s">
         <v>170</v>
       </c>
@@ -15083,7 +15075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" t="s">
         <v>171</v>
       </c>
@@ -15100,7 +15092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
         <v>172</v>
       </c>
@@ -15117,7 +15109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
         <v>173</v>
       </c>
@@ -15134,7 +15126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
         <v>174</v>
       </c>
@@ -15151,7 +15143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
         <v>175</v>
       </c>
@@ -15168,7 +15160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
         <v>176</v>
       </c>
@@ -15185,7 +15177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" t="s">
         <v>177</v>
       </c>
@@ -15202,7 +15194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
         <v>178</v>
       </c>
@@ -15219,7 +15211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
         <v>179</v>
       </c>
@@ -15236,7 +15228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
         <v>180</v>
       </c>
@@ -15253,7 +15245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410" t="s">
         <v>181</v>
       </c>
@@ -15270,7 +15262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
         <v>182</v>
       </c>
@@ -15287,7 +15279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
         <v>183</v>
       </c>
@@ -15304,7 +15296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
         <v>184</v>
       </c>
@@ -15321,7 +15313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
         <v>185</v>
       </c>
@@ -15338,7 +15330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
         <v>186</v>
       </c>
@@ -15355,7 +15347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" t="s">
         <v>187</v>
       </c>
@@ -15372,7 +15364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" t="s">
         <v>188</v>
       </c>
@@ -15389,7 +15381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" t="s">
         <v>189</v>
       </c>
@@ -15406,7 +15398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
         <v>190</v>
       </c>
@@ -15423,7 +15415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
         <v>191</v>
       </c>
@@ -15440,7 +15432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" t="s">
         <v>192</v>
       </c>
@@ -15457,7 +15449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
         <v>193</v>
       </c>
@@ -15474,7 +15466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
         <v>194</v>
       </c>
@@ -15491,7 +15483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" t="s">
         <v>195</v>
       </c>
@@ -15508,7 +15500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" t="s">
         <v>196</v>
       </c>
@@ -15525,7 +15517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" t="s">
         <v>197</v>
       </c>
@@ -15542,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
         <v>198</v>
       </c>
@@ -15559,7 +15551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" t="s">
         <v>199</v>
       </c>
@@ -15576,7 +15568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" t="s">
         <v>200</v>
       </c>
@@ -15593,7 +15585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
         <v>201</v>
       </c>
@@ -15610,7 +15602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
         <v>202</v>
       </c>
@@ -15627,7 +15619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
         <v>203</v>
       </c>
@@ -15644,7 +15636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
         <v>204</v>
       </c>
@@ -15661,7 +15653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
         <v>205</v>
       </c>
@@ -15678,7 +15670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" t="s">
         <v>206</v>
       </c>
@@ -15695,7 +15687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
         <v>207</v>
       </c>
@@ -15712,7 +15704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" t="s">
         <v>208</v>
       </c>
@@ -15729,7 +15721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" t="s">
         <v>209</v>
       </c>
@@ -15746,7 +15738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
         <v>210</v>
       </c>
@@ -15763,7 +15755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
         <v>211</v>
       </c>
@@ -15780,7 +15772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
         <v>212</v>
       </c>
@@ -15797,7 +15789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" t="s">
         <v>213</v>
       </c>
@@ -15814,7 +15806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
         <v>214</v>
       </c>
@@ -15831,7 +15823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
         <v>215</v>
       </c>
@@ -15848,7 +15840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
         <v>216</v>
       </c>
@@ -15865,7 +15857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
         <v>217</v>
       </c>
@@ -15882,7 +15874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
         <v>218</v>
       </c>
@@ -15899,7 +15891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" t="s">
         <v>219</v>
       </c>
@@ -15916,7 +15908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449" t="s">
         <v>220</v>
       </c>
@@ -15933,7 +15925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450" t="s">
         <v>221</v>
       </c>
@@ -15950,7 +15942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" t="s">
         <v>222</v>
       </c>
@@ -15967,7 +15959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" t="s">
         <v>223</v>
       </c>
@@ -15984,7 +15976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" t="s">
         <v>224</v>
       </c>
@@ -16001,7 +15993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" t="s">
         <v>225</v>
       </c>
@@ -16018,7 +16010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" t="s">
         <v>226</v>
       </c>
@@ -16035,7 +16027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" t="s">
         <v>227</v>
       </c>
@@ -16052,7 +16044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" t="s">
         <v>230</v>
       </c>
@@ -16069,16 +16061,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" t="s">
         <v>1</v>
       </c>
       <c r="B458" t="s">
         <v>460</v>
       </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
       <c r="D458">
         <v>80</v>
       </c>
@@ -16086,7 +16075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" t="s">
         <v>2</v>
       </c>
@@ -16103,7 +16092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" t="s">
         <v>3</v>
       </c>
@@ -16120,7 +16109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -16129,9 +16118,6 @@
       </c>
       <c r="C461">
         <v>50</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
       </c>
       <c r="E461">
         <v>3</v>
@@ -16147,14 +16133,11 @@
       <c r="C462">
         <v>0</v>
       </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
       <c r="E462">
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -16171,7 +16154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -16188,7 +16171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" t="s">
         <v>8</v>
       </c>
@@ -16205,7 +16188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -16222,7 +16205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" t="s">
         <v>10</v>
       </c>
@@ -16239,7 +16222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" t="s">
         <v>11</v>
       </c>
@@ -16256,7 +16239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" t="s">
         <v>12</v>
       </c>
@@ -16273,7 +16256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -16290,7 +16273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" t="s">
         <v>14</v>
       </c>
@@ -16307,7 +16290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" t="s">
         <v>15</v>
       </c>
@@ -16324,7 +16307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" t="s">
         <v>16</v>
       </c>
@@ -16341,7 +16324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" t="s">
         <v>17</v>
       </c>
@@ -16358,7 +16341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" t="s">
         <v>18</v>
       </c>
@@ -16375,7 +16358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -16392,7 +16375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" t="s">
         <v>20</v>
       </c>
@@ -16409,7 +16392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" t="s">
         <v>21</v>
       </c>
@@ -16426,7 +16409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" t="s">
         <v>22</v>
       </c>
@@ -16443,7 +16426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" t="s">
         <v>23</v>
       </c>
@@ -16460,7 +16443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" t="s">
         <v>24</v>
       </c>
@@ -16477,7 +16460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" hidden="1">
       <c r="A482" t="s">
         <v>25</v>
       </c>
@@ -16494,7 +16477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" t="s">
         <v>26</v>
       </c>
@@ -16511,7 +16494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" t="s">
         <v>27</v>
       </c>
@@ -16528,7 +16511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" t="s">
         <v>28</v>
       </c>
@@ -16545,7 +16528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" t="s">
         <v>29</v>
       </c>
@@ -16562,7 +16545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" t="s">
         <v>30</v>
       </c>
@@ -16579,7 +16562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" t="s">
         <v>31</v>
       </c>
@@ -16596,7 +16579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" t="s">
         <v>32</v>
       </c>
@@ -16613,7 +16596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" t="s">
         <v>33</v>
       </c>
@@ -16630,7 +16613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" t="s">
         <v>34</v>
       </c>
@@ -16647,7 +16630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" t="s">
         <v>35</v>
       </c>
@@ -16664,7 +16647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" t="s">
         <v>36</v>
       </c>
@@ -16681,7 +16664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" t="s">
         <v>37</v>
       </c>
@@ -16698,7 +16681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" t="s">
         <v>38</v>
       </c>
@@ -16715,7 +16698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" t="s">
         <v>39</v>
       </c>
@@ -16732,7 +16715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" t="s">
         <v>40</v>
       </c>
@@ -16749,7 +16732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" t="s">
         <v>41</v>
       </c>
@@ -16766,7 +16749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" t="s">
         <v>42</v>
       </c>
@@ -16783,7 +16766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" t="s">
         <v>43</v>
       </c>
@@ -16800,7 +16783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" t="s">
         <v>44</v>
       </c>
@@ -16817,7 +16800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" t="s">
         <v>45</v>
       </c>
@@ -16834,7 +16817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" t="s">
         <v>46</v>
       </c>
@@ -16851,7 +16834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" t="s">
         <v>47</v>
       </c>
@@ -16868,7 +16851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" t="s">
         <v>48</v>
       </c>
@@ -16885,7 +16868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" t="s">
         <v>49</v>
       </c>
@@ -16902,7 +16885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" t="s">
         <v>50</v>
       </c>
@@ -16919,7 +16902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" t="s">
         <v>51</v>
       </c>
@@ -16936,7 +16919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" t="s">
         <v>52</v>
       </c>
@@ -16953,7 +16936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" t="s">
         <v>53</v>
       </c>
@@ -16970,7 +16953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" t="s">
         <v>54</v>
       </c>
@@ -16987,7 +16970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" t="s">
         <v>55</v>
       </c>
@@ -17004,7 +16987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" t="s">
         <v>56</v>
       </c>
@@ -17021,7 +17004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" t="s">
         <v>57</v>
       </c>
@@ -17038,7 +17021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" t="s">
         <v>58</v>
       </c>
@@ -17055,7 +17038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" t="s">
         <v>59</v>
       </c>
@@ -17072,7 +17055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" t="s">
         <v>60</v>
       </c>
@@ -17089,7 +17072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" t="s">
         <v>61</v>
       </c>
@@ -17106,7 +17089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" t="s">
         <v>62</v>
       </c>
@@ -17123,7 +17106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" t="s">
         <v>63</v>
       </c>
@@ -17140,7 +17123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" t="s">
         <v>64</v>
       </c>
@@ -17157,7 +17140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" t="s">
         <v>65</v>
       </c>
@@ -17174,7 +17157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" t="s">
         <v>66</v>
       </c>
@@ -17191,7 +17174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" t="s">
         <v>67</v>
       </c>
@@ -17208,7 +17191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" hidden="1">
       <c r="A525" t="s">
         <v>68</v>
       </c>
@@ -17225,7 +17208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" t="s">
         <v>69</v>
       </c>
@@ -17242,7 +17225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" t="s">
         <v>70</v>
       </c>
@@ -17259,7 +17242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" t="s">
         <v>71</v>
       </c>
@@ -17276,7 +17259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" t="s">
         <v>72</v>
       </c>
@@ -17293,7 +17276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" t="s">
         <v>73</v>
       </c>
@@ -17310,7 +17293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" t="s">
         <v>74</v>
       </c>
@@ -17327,7 +17310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" t="s">
         <v>75</v>
       </c>
@@ -17344,7 +17327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" t="s">
         <v>76</v>
       </c>
@@ -17361,7 +17344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" t="s">
         <v>77</v>
       </c>
@@ -17378,7 +17361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" t="s">
         <v>78</v>
       </c>
@@ -17395,7 +17378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" t="s">
         <v>79</v>
       </c>
@@ -17412,7 +17395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" t="s">
         <v>80</v>
       </c>
@@ -17429,7 +17412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" t="s">
         <v>81</v>
       </c>
@@ -17446,7 +17429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" t="s">
         <v>82</v>
       </c>
@@ -17463,7 +17446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" t="s">
         <v>83</v>
       </c>
@@ -17480,7 +17463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" t="s">
         <v>84</v>
       </c>
@@ -17497,7 +17480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" t="s">
         <v>85</v>
       </c>
@@ -17514,7 +17497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" t="s">
         <v>86</v>
       </c>
@@ -17531,7 +17514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" t="s">
         <v>87</v>
       </c>
@@ -17548,7 +17531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" t="s">
         <v>88</v>
       </c>
@@ -17565,7 +17548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" t="s">
         <v>89</v>
       </c>
@@ -17582,7 +17565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" t="s">
         <v>90</v>
       </c>
@@ -17599,7 +17582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" t="s">
         <v>91</v>
       </c>
@@ -17616,7 +17599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" t="s">
         <v>92</v>
       </c>
@@ -17633,7 +17616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" t="s">
         <v>93</v>
       </c>
@@ -17650,7 +17633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" t="s">
         <v>94</v>
       </c>
@@ -17667,7 +17650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" t="s">
         <v>95</v>
       </c>
@@ -17684,7 +17667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" t="s">
         <v>96</v>
       </c>
@@ -17701,7 +17684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" t="s">
         <v>97</v>
       </c>
@@ -17718,7 +17701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" t="s">
         <v>98</v>
       </c>
@@ -17735,7 +17718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" t="s">
         <v>99</v>
       </c>
@@ -17752,7 +17735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" t="s">
         <v>100</v>
       </c>
@@ -17769,7 +17752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" t="s">
         <v>101</v>
       </c>
@@ -17786,7 +17769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" t="s">
         <v>102</v>
       </c>
@@ -17803,7 +17786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" t="s">
         <v>103</v>
       </c>
@@ -17820,7 +17803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" t="s">
         <v>104</v>
       </c>
@@ -17837,7 +17820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" t="s">
         <v>105</v>
       </c>
@@ -17854,7 +17837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" t="s">
         <v>106</v>
       </c>
@@ -17871,7 +17854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" t="s">
         <v>107</v>
       </c>
@@ -17888,7 +17871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" t="s">
         <v>108</v>
       </c>
@@ -17905,7 +17888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" t="s">
         <v>109</v>
       </c>
@@ -17922,7 +17905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" t="s">
         <v>110</v>
       </c>
@@ -17939,7 +17922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" t="s">
         <v>111</v>
       </c>
@@ -17956,7 +17939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" t="s">
         <v>112</v>
       </c>
@@ -17973,7 +17956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" t="s">
         <v>113</v>
       </c>
@@ -17990,7 +17973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" t="s">
         <v>114</v>
       </c>
@@ -18007,7 +17990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" t="s">
         <v>115</v>
       </c>
@@ -18024,7 +18007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" t="s">
         <v>116</v>
       </c>
@@ -18041,7 +18024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" t="s">
         <v>117</v>
       </c>
@@ -18058,7 +18041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" t="s">
         <v>118</v>
       </c>
@@ -18075,7 +18058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" t="s">
         <v>119</v>
       </c>
@@ -18092,7 +18075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" t="s">
         <v>120</v>
       </c>
@@ -18109,7 +18092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" t="s">
         <v>121</v>
       </c>
@@ -18126,7 +18109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" t="s">
         <v>122</v>
       </c>
@@ -18143,7 +18126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" t="s">
         <v>123</v>
       </c>
@@ -18160,7 +18143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" t="s">
         <v>124</v>
       </c>
@@ -18177,7 +18160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" t="s">
         <v>125</v>
       </c>
@@ -18194,7 +18177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" t="s">
         <v>126</v>
       </c>
@@ -18211,7 +18194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" t="s">
         <v>127</v>
       </c>
@@ -18228,7 +18211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" t="s">
         <v>128</v>
       </c>
@@ -18245,7 +18228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" t="s">
         <v>129</v>
       </c>
@@ -18262,7 +18245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" t="s">
         <v>130</v>
       </c>
@@ -18279,7 +18262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" t="s">
         <v>131</v>
       </c>
@@ -18296,7 +18279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" hidden="1">
       <c r="A589" t="s">
         <v>132</v>
       </c>
@@ -18313,7 +18296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" t="s">
         <v>133</v>
       </c>
@@ -18330,7 +18313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" t="s">
         <v>134</v>
       </c>
@@ -18347,7 +18330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" t="s">
         <v>135</v>
       </c>
@@ -18364,7 +18347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" t="s">
         <v>136</v>
       </c>
@@ -18381,7 +18364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" t="s">
         <v>137</v>
       </c>
@@ -18398,7 +18381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" t="s">
         <v>138</v>
       </c>
@@ -18415,7 +18398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" t="s">
         <v>139</v>
       </c>
@@ -18432,7 +18415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" t="s">
         <v>140</v>
       </c>
@@ -18449,7 +18432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" t="s">
         <v>141</v>
       </c>
@@ -18466,7 +18449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" t="s">
         <v>142</v>
       </c>
@@ -18483,7 +18466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" t="s">
         <v>143</v>
       </c>
@@ -18500,7 +18483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" t="s">
         <v>144</v>
       </c>
@@ -18517,7 +18500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" t="s">
         <v>145</v>
       </c>
@@ -18534,7 +18517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" t="s">
         <v>146</v>
       </c>
@@ -18551,7 +18534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" t="s">
         <v>147</v>
       </c>
@@ -18568,7 +18551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" t="s">
         <v>148</v>
       </c>
@@ -18585,7 +18568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" hidden="1">
       <c r="A606" t="s">
         <v>149</v>
       </c>
@@ -18602,7 +18585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" hidden="1">
       <c r="A607" t="s">
         <v>231</v>
       </c>
@@ -18619,7 +18602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" t="s">
         <v>150</v>
       </c>
@@ -18636,7 +18619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" t="s">
         <v>151</v>
       </c>
@@ -18653,7 +18636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" hidden="1">
       <c r="A610" t="s">
         <v>152</v>
       </c>
@@ -18670,7 +18653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" hidden="1">
       <c r="A611" t="s">
         <v>153</v>
       </c>
@@ -18687,7 +18670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" hidden="1">
       <c r="A612" t="s">
         <v>154</v>
       </c>
@@ -18704,7 +18687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" hidden="1">
       <c r="A613" t="s">
         <v>155</v>
       </c>
@@ -18721,7 +18704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" hidden="1">
       <c r="A614" t="s">
         <v>156</v>
       </c>
@@ -18738,7 +18721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" hidden="1">
       <c r="A615" t="s">
         <v>157</v>
       </c>
@@ -18755,7 +18738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" hidden="1">
       <c r="A616" t="s">
         <v>158</v>
       </c>
@@ -18772,7 +18755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" hidden="1">
       <c r="A617" t="s">
         <v>159</v>
       </c>
@@ -18789,7 +18772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" hidden="1">
       <c r="A618" t="s">
         <v>160</v>
       </c>
@@ -18806,7 +18789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" hidden="1">
       <c r="A619" t="s">
         <v>161</v>
       </c>
@@ -18823,7 +18806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" hidden="1">
       <c r="A620" t="s">
         <v>162</v>
       </c>
@@ -18840,7 +18823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" hidden="1">
       <c r="A621" t="s">
         <v>163</v>
       </c>
@@ -18857,7 +18840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" hidden="1">
       <c r="A622" t="s">
         <v>164</v>
       </c>
@@ -18874,7 +18857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" hidden="1">
       <c r="A623" t="s">
         <v>165</v>
       </c>
@@ -18891,7 +18874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" hidden="1">
       <c r="A624" t="s">
         <v>166</v>
       </c>
@@ -18908,7 +18891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" hidden="1">
       <c r="A625" t="s">
         <v>167</v>
       </c>
@@ -18925,7 +18908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" hidden="1">
       <c r="A626" t="s">
         <v>168</v>
       </c>
@@ -18942,7 +18925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" hidden="1">
       <c r="A627" t="s">
         <v>169</v>
       </c>
@@ -18959,7 +18942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" hidden="1">
       <c r="A628" t="s">
         <v>170</v>
       </c>
@@ -18976,7 +18959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" hidden="1">
       <c r="A629" t="s">
         <v>171</v>
       </c>
@@ -18993,7 +18976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" hidden="1">
       <c r="A630" t="s">
         <v>172</v>
       </c>
@@ -19010,7 +18993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" hidden="1">
       <c r="A631" t="s">
         <v>173</v>
       </c>
@@ -19027,7 +19010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" hidden="1">
       <c r="A632" t="s">
         <v>174</v>
       </c>
@@ -19044,7 +19027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" hidden="1">
       <c r="A633" t="s">
         <v>175</v>
       </c>
@@ -19061,7 +19044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" hidden="1">
       <c r="A634" t="s">
         <v>176</v>
       </c>
@@ -19078,7 +19061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" hidden="1">
       <c r="A635" t="s">
         <v>177</v>
       </c>
@@ -19095,7 +19078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" hidden="1">
       <c r="A636" t="s">
         <v>178</v>
       </c>
@@ -19112,7 +19095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" hidden="1">
       <c r="A637" t="s">
         <v>179</v>
       </c>
@@ -19129,7 +19112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" hidden="1">
       <c r="A638" t="s">
         <v>180</v>
       </c>
@@ -19146,7 +19129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" hidden="1">
       <c r="A639" t="s">
         <v>181</v>
       </c>
@@ -19163,7 +19146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" hidden="1">
       <c r="A640" t="s">
         <v>182</v>
       </c>
@@ -19180,7 +19163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" hidden="1">
       <c r="A641" t="s">
         <v>183</v>
       </c>
@@ -19197,7 +19180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" hidden="1">
       <c r="A642" t="s">
         <v>184</v>
       </c>
@@ -19214,7 +19197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" hidden="1">
       <c r="A643" t="s">
         <v>185</v>
       </c>
@@ -19231,7 +19214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" hidden="1">
       <c r="A644" t="s">
         <v>186</v>
       </c>
@@ -19248,7 +19231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" hidden="1">
       <c r="A645" t="s">
         <v>187</v>
       </c>
@@ -19265,7 +19248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" hidden="1">
       <c r="A646" t="s">
         <v>188</v>
       </c>
@@ -19282,7 +19265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" hidden="1">
       <c r="A647" t="s">
         <v>189</v>
       </c>
@@ -19299,7 +19282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" hidden="1">
       <c r="A648" t="s">
         <v>190</v>
       </c>
@@ -19316,7 +19299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" hidden="1">
       <c r="A649" t="s">
         <v>191</v>
       </c>
@@ -19333,7 +19316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" hidden="1">
       <c r="A650" t="s">
         <v>192</v>
       </c>
@@ -19350,7 +19333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" hidden="1">
       <c r="A651" t="s">
         <v>193</v>
       </c>
@@ -19367,7 +19350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" hidden="1">
       <c r="A652" t="s">
         <v>194</v>
       </c>
@@ -19384,7 +19367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" hidden="1">
       <c r="A653" t="s">
         <v>195</v>
       </c>
@@ -19401,7 +19384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" hidden="1">
       <c r="A654" t="s">
         <v>196</v>
       </c>
@@ -19418,7 +19401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" hidden="1">
       <c r="A655" t="s">
         <v>197</v>
       </c>
@@ -19435,7 +19418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" hidden="1">
       <c r="A656" t="s">
         <v>198</v>
       </c>
@@ -19452,7 +19435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" hidden="1">
       <c r="A657" t="s">
         <v>199</v>
       </c>
@@ -19469,7 +19452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" hidden="1">
       <c r="A658" t="s">
         <v>200</v>
       </c>
@@ -19486,7 +19469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" hidden="1">
       <c r="A659" t="s">
         <v>201</v>
       </c>
@@ -19503,7 +19486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" hidden="1">
       <c r="A660" t="s">
         <v>202</v>
       </c>
@@ -19520,7 +19503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" hidden="1">
       <c r="A661" t="s">
         <v>203</v>
       </c>
@@ -19537,7 +19520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" hidden="1">
       <c r="A662" t="s">
         <v>204</v>
       </c>
@@ -19554,7 +19537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" hidden="1">
       <c r="A663" t="s">
         <v>205</v>
       </c>
@@ -19571,7 +19554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" hidden="1">
       <c r="A664" t="s">
         <v>206</v>
       </c>
@@ -19588,7 +19571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" hidden="1">
       <c r="A665" t="s">
         <v>207</v>
       </c>
@@ -19605,7 +19588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" hidden="1">
       <c r="A666" t="s">
         <v>208</v>
       </c>
@@ -19622,7 +19605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" hidden="1">
       <c r="A667" t="s">
         <v>209</v>
       </c>
@@ -19639,7 +19622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" hidden="1">
       <c r="A668" t="s">
         <v>210</v>
       </c>
@@ -19656,7 +19639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" hidden="1">
       <c r="A669" t="s">
         <v>211</v>
       </c>
@@ -19673,7 +19656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" hidden="1">
       <c r="A670" t="s">
         <v>212</v>
       </c>
@@ -19690,7 +19673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" hidden="1">
       <c r="A671" t="s">
         <v>213</v>
       </c>
@@ -19707,7 +19690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" hidden="1">
       <c r="A672" t="s">
         <v>214</v>
       </c>
@@ -19724,7 +19707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" hidden="1">
       <c r="A673" t="s">
         <v>215</v>
       </c>
@@ -19741,7 +19724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" hidden="1">
       <c r="A674" t="s">
         <v>216</v>
       </c>
@@ -19758,7 +19741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" hidden="1">
       <c r="A675" t="s">
         <v>217</v>
       </c>
@@ -19775,7 +19758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" hidden="1">
       <c r="A676" t="s">
         <v>218</v>
       </c>
@@ -19792,7 +19775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" hidden="1">
       <c r="A677" t="s">
         <v>219</v>
       </c>
@@ -19809,7 +19792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" hidden="1">
       <c r="A678" t="s">
         <v>220</v>
       </c>
@@ -19826,7 +19809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" hidden="1">
       <c r="A679" t="s">
         <v>221</v>
       </c>
@@ -19843,7 +19826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" hidden="1">
       <c r="A680" t="s">
         <v>222</v>
       </c>
@@ -19860,7 +19843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" hidden="1">
       <c r="A681" t="s">
         <v>223</v>
       </c>
@@ -19877,7 +19860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" hidden="1">
       <c r="A682" t="s">
         <v>224</v>
       </c>
@@ -19894,7 +19877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" hidden="1">
       <c r="A683" t="s">
         <v>225</v>
       </c>
@@ -19911,7 +19894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" hidden="1">
       <c r="A684" t="s">
         <v>226</v>
       </c>
@@ -19928,7 +19911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" hidden="1">
       <c r="A685" t="s">
         <v>227</v>
       </c>
@@ -19945,7 +19928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" hidden="1">
       <c r="A686" t="s">
         <v>232</v>
       </c>
@@ -19962,7 +19945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" hidden="1">
       <c r="A687" t="s">
         <v>230</v>
       </c>
@@ -19979,7 +19962,3256 @@
         <v>3</v>
       </c>
     </row>
+    <row r="688" spans="1:5" hidden="1">
+      <c r="A688" t="s">
+        <v>469</v>
+      </c>
+      <c r="B688" t="s">
+        <v>470</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+      <c r="E688">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" hidden="1">
+      <c r="A689" t="s">
+        <v>229</v>
+      </c>
+      <c r="C689">
+        <v>10</v>
+      </c>
+      <c r="D689">
+        <v>20</v>
+      </c>
+      <c r="E689">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" hidden="1">
+      <c r="A690" t="s">
+        <v>1</v>
+      </c>
+      <c r="D690">
+        <v>100</v>
+      </c>
+      <c r="E690">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" hidden="1">
+      <c r="A691" t="s">
+        <v>2</v>
+      </c>
+      <c r="C691">
+        <v>40</v>
+      </c>
+      <c r="D691">
+        <v>40</v>
+      </c>
+      <c r="E691">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" hidden="1">
+      <c r="A692" t="s">
+        <v>3</v>
+      </c>
+      <c r="C692">
+        <v>60</v>
+      </c>
+      <c r="D692">
+        <v>100</v>
+      </c>
+      <c r="E692">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" hidden="1">
+      <c r="A693" t="s">
+        <v>4</v>
+      </c>
+      <c r="C693">
+        <v>20</v>
+      </c>
+      <c r="E693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" t="s">
+        <v>5</v>
+      </c>
+      <c r="C694">
+        <v>90</v>
+      </c>
+      <c r="E694">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" hidden="1">
+      <c r="A695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695">
+        <v>90</v>
+      </c>
+      <c r="D695">
+        <v>80</v>
+      </c>
+      <c r="E695">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" hidden="1">
+      <c r="A696" t="s">
+        <v>7</v>
+      </c>
+      <c r="C696">
+        <v>100</v>
+      </c>
+      <c r="D696">
+        <v>100</v>
+      </c>
+      <c r="E696">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" hidden="1">
+      <c r="A697" t="s">
+        <v>8</v>
+      </c>
+      <c r="C697">
+        <v>40</v>
+      </c>
+      <c r="D697">
+        <v>80</v>
+      </c>
+      <c r="E697">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" hidden="1">
+      <c r="A698" t="s">
+        <v>9</v>
+      </c>
+      <c r="C698">
+        <v>90</v>
+      </c>
+      <c r="D698">
+        <v>80</v>
+      </c>
+      <c r="E698">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" hidden="1">
+      <c r="A699" t="s">
+        <v>10</v>
+      </c>
+      <c r="C699">
+        <v>90</v>
+      </c>
+      <c r="D699">
+        <v>60</v>
+      </c>
+      <c r="E699">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" hidden="1">
+      <c r="A700" t="s">
+        <v>11</v>
+      </c>
+      <c r="C700">
+        <v>20</v>
+      </c>
+      <c r="D700">
+        <v>40</v>
+      </c>
+      <c r="E700">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" hidden="1">
+      <c r="A701" t="s">
+        <v>12</v>
+      </c>
+      <c r="C701">
+        <v>20</v>
+      </c>
+      <c r="D701">
+        <v>100</v>
+      </c>
+      <c r="E701">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" hidden="1">
+      <c r="A702" t="s">
+        <v>13</v>
+      </c>
+      <c r="C702">
+        <v>10</v>
+      </c>
+      <c r="D702">
+        <v>80</v>
+      </c>
+      <c r="E702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" hidden="1">
+      <c r="A703" t="s">
+        <v>14</v>
+      </c>
+      <c r="C703">
+        <v>70</v>
+      </c>
+      <c r="D703">
+        <v>100</v>
+      </c>
+      <c r="E703">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" hidden="1">
+      <c r="A704" t="s">
+        <v>15</v>
+      </c>
+      <c r="C704">
+        <v>80</v>
+      </c>
+      <c r="D704">
+        <v>100</v>
+      </c>
+      <c r="E704">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" hidden="1">
+      <c r="A705" t="s">
+        <v>16</v>
+      </c>
+      <c r="C705">
+        <v>80</v>
+      </c>
+      <c r="D705">
+        <v>80</v>
+      </c>
+      <c r="E705">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" hidden="1">
+      <c r="A706" t="s">
+        <v>17</v>
+      </c>
+      <c r="C706">
+        <v>70</v>
+      </c>
+      <c r="D706">
+        <v>100</v>
+      </c>
+      <c r="E706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" hidden="1">
+      <c r="A707" t="s">
+        <v>18</v>
+      </c>
+      <c r="C707">
+        <v>80</v>
+      </c>
+      <c r="D707">
+        <v>80</v>
+      </c>
+      <c r="E707">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" hidden="1">
+      <c r="A708" t="s">
+        <v>19</v>
+      </c>
+      <c r="C708">
+        <v>50</v>
+      </c>
+      <c r="D708">
+        <v>100</v>
+      </c>
+      <c r="E708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" hidden="1">
+      <c r="A709" t="s">
+        <v>20</v>
+      </c>
+      <c r="C709">
+        <v>40</v>
+      </c>
+      <c r="D709">
+        <v>60</v>
+      </c>
+      <c r="E709">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" hidden="1">
+      <c r="A710" t="s">
+        <v>21</v>
+      </c>
+      <c r="C710">
+        <v>60</v>
+      </c>
+      <c r="D710">
+        <v>100</v>
+      </c>
+      <c r="E710">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" hidden="1">
+      <c r="A711" t="s">
+        <v>22</v>
+      </c>
+      <c r="C711">
+        <v>80</v>
+      </c>
+      <c r="D711">
+        <v>80</v>
+      </c>
+      <c r="E711">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" hidden="1">
+      <c r="A712" t="s">
+        <v>23</v>
+      </c>
+      <c r="C712">
+        <v>100</v>
+      </c>
+      <c r="D712">
+        <v>80</v>
+      </c>
+      <c r="E712">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" hidden="1">
+      <c r="A713" t="s">
+        <v>24</v>
+      </c>
+      <c r="C713">
+        <v>100</v>
+      </c>
+      <c r="D713">
+        <v>100</v>
+      </c>
+      <c r="E713">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" hidden="1">
+      <c r="A714" t="s">
+        <v>25</v>
+      </c>
+      <c r="C714">
+        <v>60</v>
+      </c>
+      <c r="D714">
+        <v>60</v>
+      </c>
+      <c r="E714">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" hidden="1">
+      <c r="A715" t="s">
+        <v>26</v>
+      </c>
+      <c r="C715">
+        <v>80</v>
+      </c>
+      <c r="D715">
+        <v>80</v>
+      </c>
+      <c r="E715">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" hidden="1">
+      <c r="A716" t="s">
+        <v>27</v>
+      </c>
+      <c r="C716">
+        <v>60</v>
+      </c>
+      <c r="D716">
+        <v>80</v>
+      </c>
+      <c r="E716">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" hidden="1">
+      <c r="A717" t="s">
+        <v>28</v>
+      </c>
+      <c r="C717">
+        <v>80</v>
+      </c>
+      <c r="D717">
+        <v>100</v>
+      </c>
+      <c r="E717">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" hidden="1">
+      <c r="A718" t="s">
+        <v>29</v>
+      </c>
+      <c r="C718">
+        <v>50</v>
+      </c>
+      <c r="D718">
+        <v>80</v>
+      </c>
+      <c r="E718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" hidden="1">
+      <c r="A719" t="s">
+        <v>30</v>
+      </c>
+      <c r="C719">
+        <v>70</v>
+      </c>
+      <c r="D719">
+        <v>100</v>
+      </c>
+      <c r="E719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" hidden="1">
+      <c r="A720" t="s">
+        <v>31</v>
+      </c>
+      <c r="C720">
+        <v>50</v>
+      </c>
+      <c r="D720">
+        <v>60</v>
+      </c>
+      <c r="E720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" hidden="1">
+      <c r="A721" t="s">
+        <v>32</v>
+      </c>
+      <c r="C721">
+        <v>90</v>
+      </c>
+      <c r="D721">
+        <v>100</v>
+      </c>
+      <c r="E721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" hidden="1">
+      <c r="A722" t="s">
+        <v>33</v>
+      </c>
+      <c r="C722">
+        <v>30</v>
+      </c>
+      <c r="D722">
+        <v>60</v>
+      </c>
+      <c r="E722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" hidden="1">
+      <c r="A723" t="s">
+        <v>34</v>
+      </c>
+      <c r="C723">
+        <v>30</v>
+      </c>
+      <c r="D723">
+        <v>60</v>
+      </c>
+      <c r="E723">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" hidden="1">
+      <c r="A724" t="s">
+        <v>35</v>
+      </c>
+      <c r="C724">
+        <v>40</v>
+      </c>
+      <c r="D724">
+        <v>80</v>
+      </c>
+      <c r="E724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" hidden="1">
+      <c r="A725" t="s">
+        <v>36</v>
+      </c>
+      <c r="C725">
+        <v>30</v>
+      </c>
+      <c r="D725">
+        <v>60</v>
+      </c>
+      <c r="E725">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" hidden="1">
+      <c r="A726" t="s">
+        <v>37</v>
+      </c>
+      <c r="C726">
+        <v>60</v>
+      </c>
+      <c r="D726">
+        <v>80</v>
+      </c>
+      <c r="E726">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" hidden="1">
+      <c r="A727" t="s">
+        <v>38</v>
+      </c>
+      <c r="C727">
+        <v>30</v>
+      </c>
+      <c r="D727">
+        <v>60</v>
+      </c>
+      <c r="E727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" hidden="1">
+      <c r="A728" t="s">
+        <v>39</v>
+      </c>
+      <c r="C728">
+        <v>40</v>
+      </c>
+      <c r="D728">
+        <v>60</v>
+      </c>
+      <c r="E728">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" hidden="1">
+      <c r="A729" t="s">
+        <v>40</v>
+      </c>
+      <c r="C729">
+        <v>70</v>
+      </c>
+      <c r="D729">
+        <v>80</v>
+      </c>
+      <c r="E729">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" hidden="1">
+      <c r="A730" t="s">
+        <v>41</v>
+      </c>
+      <c r="C730">
+        <v>70</v>
+      </c>
+      <c r="D730">
+        <v>80</v>
+      </c>
+      <c r="E730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" hidden="1">
+      <c r="A731" t="s">
+        <v>42</v>
+      </c>
+      <c r="C731">
+        <v>10</v>
+      </c>
+      <c r="D731">
+        <v>80</v>
+      </c>
+      <c r="E731">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" hidden="1">
+      <c r="A732" t="s">
+        <v>43</v>
+      </c>
+      <c r="C732">
+        <v>70</v>
+      </c>
+      <c r="D732">
+        <v>60</v>
+      </c>
+      <c r="E732">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" hidden="1">
+      <c r="A733" t="s">
+        <v>44</v>
+      </c>
+      <c r="C733">
+        <v>60</v>
+      </c>
+      <c r="D733">
+        <v>80</v>
+      </c>
+      <c r="E733">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" hidden="1">
+      <c r="A734" t="s">
+        <v>45</v>
+      </c>
+      <c r="C734">
+        <v>70</v>
+      </c>
+      <c r="D734">
+        <v>60</v>
+      </c>
+      <c r="E734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" hidden="1">
+      <c r="A735" t="s">
+        <v>46</v>
+      </c>
+      <c r="C735">
+        <v>30</v>
+      </c>
+      <c r="D735">
+        <v>80</v>
+      </c>
+      <c r="E735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" hidden="1">
+      <c r="A736" t="s">
+        <v>47</v>
+      </c>
+      <c r="C736">
+        <v>40</v>
+      </c>
+      <c r="D736">
+        <v>60</v>
+      </c>
+      <c r="E736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" hidden="1">
+      <c r="A737" t="s">
+        <v>48</v>
+      </c>
+      <c r="C737">
+        <v>90</v>
+      </c>
+      <c r="D737">
+        <v>80</v>
+      </c>
+      <c r="E737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" hidden="1">
+      <c r="A738" t="s">
+        <v>49</v>
+      </c>
+      <c r="C738">
+        <v>80</v>
+      </c>
+      <c r="D738">
+        <v>100</v>
+      </c>
+      <c r="E738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" hidden="1">
+      <c r="A739" t="s">
+        <v>50</v>
+      </c>
+      <c r="C739">
+        <v>30</v>
+      </c>
+      <c r="D739">
+        <v>60</v>
+      </c>
+      <c r="E739">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" hidden="1">
+      <c r="A740" t="s">
+        <v>51</v>
+      </c>
+      <c r="C740">
+        <v>60</v>
+      </c>
+      <c r="D740">
+        <v>80</v>
+      </c>
+      <c r="E740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" hidden="1">
+      <c r="A741" t="s">
+        <v>52</v>
+      </c>
+      <c r="C741">
+        <v>60</v>
+      </c>
+      <c r="D741">
+        <v>60</v>
+      </c>
+      <c r="E741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" hidden="1">
+      <c r="A742" t="s">
+        <v>53</v>
+      </c>
+      <c r="C742">
+        <v>80</v>
+      </c>
+      <c r="D742">
+        <v>80</v>
+      </c>
+      <c r="E742">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" hidden="1">
+      <c r="A743" t="s">
+        <v>54</v>
+      </c>
+      <c r="C743">
+        <v>0</v>
+      </c>
+      <c r="D743">
+        <v>20</v>
+      </c>
+      <c r="E743">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" hidden="1">
+      <c r="A744" t="s">
+        <v>55</v>
+      </c>
+      <c r="C744">
+        <v>50</v>
+      </c>
+      <c r="D744">
+        <v>40</v>
+      </c>
+      <c r="E744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" hidden="1">
+      <c r="A745" t="s">
+        <v>56</v>
+      </c>
+      <c r="C745">
+        <v>20</v>
+      </c>
+      <c r="D745">
+        <v>40</v>
+      </c>
+      <c r="E745">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" hidden="1">
+      <c r="A746" t="s">
+        <v>57</v>
+      </c>
+      <c r="C746">
+        <v>40</v>
+      </c>
+      <c r="D746">
+        <v>20</v>
+      </c>
+      <c r="E746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" hidden="1">
+      <c r="A747" t="s">
+        <v>58</v>
+      </c>
+      <c r="C747">
+        <v>70</v>
+      </c>
+      <c r="D747">
+        <v>60</v>
+      </c>
+      <c r="E747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" hidden="1">
+      <c r="A748" t="s">
+        <v>59</v>
+      </c>
+      <c r="C748">
+        <v>40</v>
+      </c>
+      <c r="D748">
+        <v>60</v>
+      </c>
+      <c r="E748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" hidden="1">
+      <c r="A749" t="s">
+        <v>60</v>
+      </c>
+      <c r="C749">
+        <v>30</v>
+      </c>
+      <c r="D749">
+        <v>40</v>
+      </c>
+      <c r="E749">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" hidden="1">
+      <c r="A750" t="s">
+        <v>61</v>
+      </c>
+      <c r="C750">
+        <v>30</v>
+      </c>
+      <c r="D750">
+        <v>40</v>
+      </c>
+      <c r="E750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" hidden="1">
+      <c r="A751" t="s">
+        <v>62</v>
+      </c>
+      <c r="C751">
+        <v>80</v>
+      </c>
+      <c r="D751">
+        <v>100</v>
+      </c>
+      <c r="E751">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" hidden="1">
+      <c r="A752" t="s">
+        <v>63</v>
+      </c>
+      <c r="C752">
+        <v>70</v>
+      </c>
+      <c r="D752">
+        <v>100</v>
+      </c>
+      <c r="E752">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" hidden="1">
+      <c r="A753" t="s">
+        <v>64</v>
+      </c>
+      <c r="C753">
+        <v>30</v>
+      </c>
+      <c r="D753">
+        <v>60</v>
+      </c>
+      <c r="E753">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" hidden="1">
+      <c r="A754" t="s">
+        <v>65</v>
+      </c>
+      <c r="C754">
+        <v>30</v>
+      </c>
+      <c r="D754">
+        <v>60</v>
+      </c>
+      <c r="E754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" hidden="1">
+      <c r="A755" t="s">
+        <v>66</v>
+      </c>
+      <c r="C755">
+        <v>30</v>
+      </c>
+      <c r="D755">
+        <v>60</v>
+      </c>
+      <c r="E755">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" hidden="1">
+      <c r="A756" t="s">
+        <v>67</v>
+      </c>
+      <c r="C756">
+        <v>60</v>
+      </c>
+      <c r="D756">
+        <v>40</v>
+      </c>
+      <c r="E756">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" hidden="1">
+      <c r="A757" t="s">
+        <v>68</v>
+      </c>
+      <c r="C757">
+        <v>40</v>
+      </c>
+      <c r="D757">
+        <v>60</v>
+      </c>
+      <c r="E757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" hidden="1">
+      <c r="A758" t="s">
+        <v>69</v>
+      </c>
+      <c r="C758">
+        <v>10</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" hidden="1">
+      <c r="A759" t="s">
+        <v>70</v>
+      </c>
+      <c r="C759">
+        <v>40</v>
+      </c>
+      <c r="D759">
+        <v>20</v>
+      </c>
+      <c r="E759">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" hidden="1">
+      <c r="A760" t="s">
+        <v>71</v>
+      </c>
+      <c r="C760">
+        <v>40</v>
+      </c>
+      <c r="D760">
+        <v>20</v>
+      </c>
+      <c r="E760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" hidden="1">
+      <c r="A761" t="s">
+        <v>72</v>
+      </c>
+      <c r="C761">
+        <v>80</v>
+      </c>
+      <c r="D761">
+        <v>80</v>
+      </c>
+      <c r="E761">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" hidden="1">
+      <c r="A762" t="s">
+        <v>73</v>
+      </c>
+      <c r="C762">
+        <v>50</v>
+      </c>
+      <c r="D762">
+        <v>100</v>
+      </c>
+      <c r="E762">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" hidden="1">
+      <c r="A763" t="s">
+        <v>74</v>
+      </c>
+      <c r="C763">
+        <v>50</v>
+      </c>
+      <c r="D763">
+        <v>20</v>
+      </c>
+      <c r="E763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" hidden="1">
+      <c r="A764" t="s">
+        <v>75</v>
+      </c>
+      <c r="C764">
+        <v>50</v>
+      </c>
+      <c r="D764">
+        <v>80</v>
+      </c>
+      <c r="E764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" hidden="1">
+      <c r="A765" t="s">
+        <v>76</v>
+      </c>
+      <c r="C765">
+        <v>40</v>
+      </c>
+      <c r="D765">
+        <v>60</v>
+      </c>
+      <c r="E765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" hidden="1">
+      <c r="A766" t="s">
+        <v>77</v>
+      </c>
+      <c r="C766">
+        <v>60</v>
+      </c>
+      <c r="D766">
+        <v>60</v>
+      </c>
+      <c r="E766">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" hidden="1">
+      <c r="A767" t="s">
+        <v>78</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+      <c r="D767">
+        <v>80</v>
+      </c>
+      <c r="E767">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" hidden="1">
+      <c r="A768" t="s">
+        <v>79</v>
+      </c>
+      <c r="C768">
+        <v>50</v>
+      </c>
+      <c r="D768">
+        <v>40</v>
+      </c>
+      <c r="E768">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" hidden="1">
+      <c r="A769" t="s">
+        <v>80</v>
+      </c>
+      <c r="C769">
+        <v>70</v>
+      </c>
+      <c r="D769">
+        <v>20</v>
+      </c>
+      <c r="E769">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" hidden="1">
+      <c r="A770" t="s">
+        <v>81</v>
+      </c>
+      <c r="C770">
+        <v>20</v>
+      </c>
+      <c r="D770">
+        <v>60</v>
+      </c>
+      <c r="E770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" hidden="1">
+      <c r="A771" t="s">
+        <v>82</v>
+      </c>
+      <c r="C771">
+        <v>80</v>
+      </c>
+      <c r="D771">
+        <v>80</v>
+      </c>
+      <c r="E771">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" hidden="1">
+      <c r="A772" t="s">
+        <v>83</v>
+      </c>
+      <c r="C772">
+        <v>70</v>
+      </c>
+      <c r="D772">
+        <v>20</v>
+      </c>
+      <c r="E772">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" hidden="1">
+      <c r="A773" t="s">
+        <v>84</v>
+      </c>
+      <c r="C773">
+        <v>30</v>
+      </c>
+      <c r="D773">
+        <v>60</v>
+      </c>
+      <c r="E773">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" hidden="1">
+      <c r="A774" t="s">
+        <v>85</v>
+      </c>
+      <c r="C774">
+        <v>40</v>
+      </c>
+      <c r="D774">
+        <v>60</v>
+      </c>
+      <c r="E774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" hidden="1">
+      <c r="A775" t="s">
+        <v>86</v>
+      </c>
+      <c r="C775">
+        <v>60</v>
+      </c>
+      <c r="D775">
+        <v>100</v>
+      </c>
+      <c r="E775">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" hidden="1">
+      <c r="A776" t="s">
+        <v>87</v>
+      </c>
+      <c r="C776">
+        <v>20</v>
+      </c>
+      <c r="D776">
+        <v>20</v>
+      </c>
+      <c r="E776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" hidden="1">
+      <c r="A777" t="s">
+        <v>88</v>
+      </c>
+      <c r="C777">
+        <v>60</v>
+      </c>
+      <c r="D777">
+        <v>60</v>
+      </c>
+      <c r="E777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" hidden="1">
+      <c r="A778" t="s">
+        <v>89</v>
+      </c>
+      <c r="C778">
+        <v>90</v>
+      </c>
+      <c r="D778">
+        <v>100</v>
+      </c>
+      <c r="E778">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" hidden="1">
+      <c r="A779" t="s">
+        <v>90</v>
+      </c>
+      <c r="C779">
+        <v>10</v>
+      </c>
+      <c r="D779">
+        <v>20</v>
+      </c>
+      <c r="E779">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" hidden="1">
+      <c r="A780" t="s">
+        <v>91</v>
+      </c>
+      <c r="C780">
+        <v>50</v>
+      </c>
+      <c r="D780">
+        <v>40</v>
+      </c>
+      <c r="E780">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" hidden="1">
+      <c r="A781" t="s">
+        <v>92</v>
+      </c>
+      <c r="C781">
+        <v>10</v>
+      </c>
+      <c r="D781">
+        <v>40</v>
+      </c>
+      <c r="E781">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" hidden="1">
+      <c r="A782" t="s">
+        <v>93</v>
+      </c>
+      <c r="C782">
+        <v>80</v>
+      </c>
+      <c r="D782">
+        <v>80</v>
+      </c>
+      <c r="E782">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" hidden="1">
+      <c r="A783" t="s">
+        <v>94</v>
+      </c>
+      <c r="C783">
+        <v>40</v>
+      </c>
+      <c r="D783">
+        <v>80</v>
+      </c>
+      <c r="E783">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" hidden="1">
+      <c r="A784" t="s">
+        <v>95</v>
+      </c>
+      <c r="C784">
+        <v>50</v>
+      </c>
+      <c r="D784">
+        <v>80</v>
+      </c>
+      <c r="E784">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" hidden="1">
+      <c r="A785" t="s">
+        <v>96</v>
+      </c>
+      <c r="C785">
+        <v>70</v>
+      </c>
+      <c r="D785">
+        <v>80</v>
+      </c>
+      <c r="E785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" hidden="1">
+      <c r="A786" t="s">
+        <v>97</v>
+      </c>
+      <c r="C786">
+        <v>50</v>
+      </c>
+      <c r="D786">
+        <v>60</v>
+      </c>
+      <c r="E786">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" hidden="1">
+      <c r="A787" t="s">
+        <v>98</v>
+      </c>
+      <c r="C787">
+        <v>70</v>
+      </c>
+      <c r="D787">
+        <v>60</v>
+      </c>
+      <c r="E787">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" hidden="1">
+      <c r="A788" t="s">
+        <v>99</v>
+      </c>
+      <c r="C788">
+        <v>40</v>
+      </c>
+      <c r="D788">
+        <v>60</v>
+      </c>
+      <c r="E788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" hidden="1">
+      <c r="A789" t="s">
+        <v>100</v>
+      </c>
+      <c r="C789">
+        <v>40</v>
+      </c>
+      <c r="D789">
+        <v>20</v>
+      </c>
+      <c r="E789">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" hidden="1">
+      <c r="A790" t="s">
+        <v>101</v>
+      </c>
+      <c r="C790">
+        <v>30</v>
+      </c>
+      <c r="D790">
+        <v>60</v>
+      </c>
+      <c r="E790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" hidden="1">
+      <c r="A791" t="s">
+        <v>102</v>
+      </c>
+      <c r="C791">
+        <v>80</v>
+      </c>
+      <c r="D791">
+        <v>100</v>
+      </c>
+      <c r="E791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" hidden="1">
+      <c r="A792" t="s">
+        <v>103</v>
+      </c>
+      <c r="C792">
+        <v>80</v>
+      </c>
+      <c r="D792">
+        <v>100</v>
+      </c>
+      <c r="E792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" hidden="1">
+      <c r="A793" t="s">
+        <v>104</v>
+      </c>
+      <c r="C793">
+        <v>90</v>
+      </c>
+      <c r="D793">
+        <v>80</v>
+      </c>
+      <c r="E793">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" hidden="1">
+      <c r="A794" t="s">
+        <v>105</v>
+      </c>
+      <c r="C794">
+        <v>80</v>
+      </c>
+      <c r="D794">
+        <v>100</v>
+      </c>
+      <c r="E794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" hidden="1">
+      <c r="A795" t="s">
+        <v>106</v>
+      </c>
+      <c r="C795">
+        <v>80</v>
+      </c>
+      <c r="D795">
+        <v>100</v>
+      </c>
+      <c r="E795">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" hidden="1">
+      <c r="A796" t="s">
+        <v>107</v>
+      </c>
+      <c r="C796">
+        <v>40</v>
+      </c>
+      <c r="D796">
+        <v>80</v>
+      </c>
+      <c r="E796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" hidden="1">
+      <c r="A797" t="s">
+        <v>108</v>
+      </c>
+      <c r="C797">
+        <v>40</v>
+      </c>
+      <c r="D797">
+        <v>100</v>
+      </c>
+      <c r="E797">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" hidden="1">
+      <c r="A798" t="s">
+        <v>109</v>
+      </c>
+      <c r="C798">
+        <v>20</v>
+      </c>
+      <c r="D798">
+        <v>20</v>
+      </c>
+      <c r="E798">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" hidden="1">
+      <c r="A799" t="s">
+        <v>110</v>
+      </c>
+      <c r="C799">
+        <v>70</v>
+      </c>
+      <c r="D799">
+        <v>80</v>
+      </c>
+      <c r="E799">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" hidden="1">
+      <c r="A800" t="s">
+        <v>111</v>
+      </c>
+      <c r="C800">
+        <v>60</v>
+      </c>
+      <c r="D800">
+        <v>80</v>
+      </c>
+      <c r="E800">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" hidden="1">
+      <c r="A801" t="s">
+        <v>112</v>
+      </c>
+      <c r="C801">
+        <v>30</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+      <c r="E801">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" hidden="1">
+      <c r="A802" t="s">
+        <v>113</v>
+      </c>
+      <c r="C802">
+        <v>30</v>
+      </c>
+      <c r="D802">
+        <v>20</v>
+      </c>
+      <c r="E802">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" hidden="1">
+      <c r="A803" t="s">
+        <v>114</v>
+      </c>
+      <c r="C803">
+        <v>90</v>
+      </c>
+      <c r="D803">
+        <v>80</v>
+      </c>
+      <c r="E803">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" hidden="1">
+      <c r="A804" t="s">
+        <v>115</v>
+      </c>
+      <c r="C804">
+        <v>80</v>
+      </c>
+      <c r="D804">
+        <v>100</v>
+      </c>
+      <c r="E804">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" hidden="1">
+      <c r="A805" t="s">
+        <v>116</v>
+      </c>
+      <c r="C805">
+        <v>10</v>
+      </c>
+      <c r="D805">
+        <v>60</v>
+      </c>
+      <c r="E805">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" hidden="1">
+      <c r="A806" t="s">
+        <v>117</v>
+      </c>
+      <c r="C806">
+        <v>40</v>
+      </c>
+      <c r="D806">
+        <v>60</v>
+      </c>
+      <c r="E806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" hidden="1">
+      <c r="A807" t="s">
+        <v>118</v>
+      </c>
+      <c r="C807">
+        <v>40</v>
+      </c>
+      <c r="D807">
+        <v>60</v>
+      </c>
+      <c r="E807">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" hidden="1">
+      <c r="A808" t="s">
+        <v>119</v>
+      </c>
+      <c r="C808">
+        <v>90</v>
+      </c>
+      <c r="D808">
+        <v>60</v>
+      </c>
+      <c r="E808">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" hidden="1">
+      <c r="A809" t="s">
+        <v>120</v>
+      </c>
+      <c r="C809">
+        <v>100</v>
+      </c>
+      <c r="D809">
+        <v>80</v>
+      </c>
+      <c r="E809">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" hidden="1">
+      <c r="A810" t="s">
+        <v>121</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810">
+        <v>40</v>
+      </c>
+      <c r="E810">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" hidden="1">
+      <c r="A811" t="s">
+        <v>122</v>
+      </c>
+      <c r="C811">
+        <v>90</v>
+      </c>
+      <c r="D811">
+        <v>80</v>
+      </c>
+      <c r="E811">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" hidden="1">
+      <c r="A812" t="s">
+        <v>123</v>
+      </c>
+      <c r="C812">
+        <v>70</v>
+      </c>
+      <c r="D812">
+        <v>60</v>
+      </c>
+      <c r="E812">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" hidden="1">
+      <c r="A813" t="s">
+        <v>124</v>
+      </c>
+      <c r="C813">
+        <v>40</v>
+      </c>
+      <c r="D813">
+        <v>60</v>
+      </c>
+      <c r="E813">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" hidden="1">
+      <c r="A814" t="s">
+        <v>125</v>
+      </c>
+      <c r="C814">
+        <v>80</v>
+      </c>
+      <c r="D814">
+        <v>80</v>
+      </c>
+      <c r="E814">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" hidden="1">
+      <c r="A815" t="s">
+        <v>126</v>
+      </c>
+      <c r="C815">
+        <v>60</v>
+      </c>
+      <c r="D815">
+        <v>40</v>
+      </c>
+      <c r="E815">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" hidden="1">
+      <c r="A816" t="s">
+        <v>127</v>
+      </c>
+      <c r="C816">
+        <v>50</v>
+      </c>
+      <c r="D816">
+        <v>60</v>
+      </c>
+      <c r="E816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" hidden="1">
+      <c r="A817" t="s">
+        <v>128</v>
+      </c>
+      <c r="C817">
+        <v>20</v>
+      </c>
+      <c r="D817">
+        <v>60</v>
+      </c>
+      <c r="E817">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" hidden="1">
+      <c r="A818" t="s">
+        <v>129</v>
+      </c>
+      <c r="C818">
+        <v>50</v>
+      </c>
+      <c r="D818">
+        <v>100</v>
+      </c>
+      <c r="E818">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" hidden="1">
+      <c r="A819" t="s">
+        <v>130</v>
+      </c>
+      <c r="C819">
+        <v>20</v>
+      </c>
+      <c r="D819">
+        <v>60</v>
+      </c>
+      <c r="E819">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" hidden="1">
+      <c r="A820" t="s">
+        <v>131</v>
+      </c>
+      <c r="C820">
+        <v>10</v>
+      </c>
+      <c r="D820">
+        <v>40</v>
+      </c>
+      <c r="E820">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" hidden="1">
+      <c r="A821" t="s">
+        <v>132</v>
+      </c>
+      <c r="C821">
+        <v>60</v>
+      </c>
+      <c r="D821">
+        <v>80</v>
+      </c>
+      <c r="E821">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" hidden="1">
+      <c r="A822" t="s">
+        <v>133</v>
+      </c>
+      <c r="C822">
+        <v>50</v>
+      </c>
+      <c r="D822">
+        <v>60</v>
+      </c>
+      <c r="E822">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" hidden="1">
+      <c r="A823" t="s">
+        <v>134</v>
+      </c>
+      <c r="C823">
+        <v>30</v>
+      </c>
+      <c r="D823">
+        <v>40</v>
+      </c>
+      <c r="E823">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" hidden="1">
+      <c r="A824" t="s">
+        <v>135</v>
+      </c>
+      <c r="C824">
+        <v>20</v>
+      </c>
+      <c r="D824">
+        <v>40</v>
+      </c>
+      <c r="E824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" hidden="1">
+      <c r="A825" t="s">
+        <v>136</v>
+      </c>
+      <c r="C825">
+        <v>20</v>
+      </c>
+      <c r="D825">
+        <v>60</v>
+      </c>
+      <c r="E825">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" hidden="1">
+      <c r="A826" t="s">
+        <v>137</v>
+      </c>
+      <c r="C826">
+        <v>70</v>
+      </c>
+      <c r="D826">
+        <v>80</v>
+      </c>
+      <c r="E826">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" hidden="1">
+      <c r="A827" t="s">
+        <v>138</v>
+      </c>
+      <c r="C827">
+        <v>30</v>
+      </c>
+      <c r="D827">
+        <v>20</v>
+      </c>
+      <c r="E827">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" hidden="1">
+      <c r="A828" t="s">
+        <v>139</v>
+      </c>
+      <c r="C828">
+        <v>20</v>
+      </c>
+      <c r="D828">
+        <v>80</v>
+      </c>
+      <c r="E828">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" hidden="1">
+      <c r="A829" t="s">
+        <v>140</v>
+      </c>
+      <c r="C829">
+        <v>30</v>
+      </c>
+      <c r="D829">
+        <v>40</v>
+      </c>
+      <c r="E829">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" hidden="1">
+      <c r="A830" t="s">
+        <v>141</v>
+      </c>
+      <c r="C830">
+        <v>30</v>
+      </c>
+      <c r="D830">
+        <v>60</v>
+      </c>
+      <c r="E830">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" hidden="1">
+      <c r="A831" t="s">
+        <v>142</v>
+      </c>
+      <c r="C831">
+        <v>30</v>
+      </c>
+      <c r="D831">
+        <v>60</v>
+      </c>
+      <c r="E831">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" hidden="1">
+      <c r="A832" t="s">
+        <v>143</v>
+      </c>
+      <c r="C832">
+        <v>20</v>
+      </c>
+      <c r="D832">
+        <v>40</v>
+      </c>
+      <c r="E832">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" hidden="1">
+      <c r="A833" t="s">
+        <v>144</v>
+      </c>
+      <c r="C833">
+        <v>80</v>
+      </c>
+      <c r="D833">
+        <v>60</v>
+      </c>
+      <c r="E833">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" hidden="1">
+      <c r="A834" t="s">
+        <v>145</v>
+      </c>
+      <c r="C834">
+        <v>80</v>
+      </c>
+      <c r="D834">
+        <v>80</v>
+      </c>
+      <c r="E834">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" hidden="1">
+      <c r="A835" t="s">
+        <v>146</v>
+      </c>
+      <c r="C835">
+        <v>50</v>
+      </c>
+      <c r="D835">
+        <v>20</v>
+      </c>
+      <c r="E835">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" hidden="1">
+      <c r="A836" t="s">
+        <v>147</v>
+      </c>
+      <c r="C836">
+        <v>0</v>
+      </c>
+      <c r="D836">
+        <v>20</v>
+      </c>
+      <c r="E836">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" hidden="1">
+      <c r="A837" t="s">
+        <v>148</v>
+      </c>
+      <c r="C837">
+        <v>70</v>
+      </c>
+      <c r="D837">
+        <v>80</v>
+      </c>
+      <c r="E837">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" hidden="1">
+      <c r="A838" t="s">
+        <v>149</v>
+      </c>
+      <c r="C838">
+        <v>70</v>
+      </c>
+      <c r="D838">
+        <v>40</v>
+      </c>
+      <c r="E838">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" hidden="1">
+      <c r="A839" t="s">
+        <v>231</v>
+      </c>
+      <c r="C839">
+        <v>40</v>
+      </c>
+      <c r="D839">
+        <v>100</v>
+      </c>
+      <c r="E839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" hidden="1">
+      <c r="A840" t="s">
+        <v>150</v>
+      </c>
+      <c r="C840">
+        <v>60</v>
+      </c>
+      <c r="D840">
+        <v>40</v>
+      </c>
+      <c r="E840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" hidden="1">
+      <c r="A841" t="s">
+        <v>151</v>
+      </c>
+      <c r="C841">
+        <v>50</v>
+      </c>
+      <c r="D841">
+        <v>80</v>
+      </c>
+      <c r="E841">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" hidden="1">
+      <c r="A842" t="s">
+        <v>152</v>
+      </c>
+      <c r="C842">
+        <v>20</v>
+      </c>
+      <c r="D842">
+        <v>20</v>
+      </c>
+      <c r="E842">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" hidden="1">
+      <c r="A843" t="s">
+        <v>153</v>
+      </c>
+      <c r="C843">
+        <v>30</v>
+      </c>
+      <c r="D843">
+        <v>60</v>
+      </c>
+      <c r="E843">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" hidden="1">
+      <c r="A844" t="s">
+        <v>154</v>
+      </c>
+      <c r="C844">
+        <v>20</v>
+      </c>
+      <c r="D844">
+        <v>60</v>
+      </c>
+      <c r="E844">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" hidden="1">
+      <c r="A845" t="s">
+        <v>155</v>
+      </c>
+      <c r="C845">
+        <v>100</v>
+      </c>
+      <c r="D845">
+        <v>100</v>
+      </c>
+      <c r="E845">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" hidden="1">
+      <c r="A846" t="s">
+        <v>156</v>
+      </c>
+      <c r="C846">
+        <v>30</v>
+      </c>
+      <c r="D846">
+        <v>60</v>
+      </c>
+      <c r="E846">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" hidden="1">
+      <c r="A847" t="s">
+        <v>157</v>
+      </c>
+      <c r="C847">
+        <v>80</v>
+      </c>
+      <c r="D847">
+        <v>80</v>
+      </c>
+      <c r="E847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" hidden="1">
+      <c r="A848" t="s">
+        <v>158</v>
+      </c>
+      <c r="C848">
+        <v>30</v>
+      </c>
+      <c r="D848">
+        <v>80</v>
+      </c>
+      <c r="E848">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" hidden="1">
+      <c r="A849" t="s">
+        <v>159</v>
+      </c>
+      <c r="C849">
+        <v>80</v>
+      </c>
+      <c r="D849">
+        <v>80</v>
+      </c>
+      <c r="E849">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" hidden="1">
+      <c r="A850" t="s">
+        <v>160</v>
+      </c>
+      <c r="C850">
+        <v>70</v>
+      </c>
+      <c r="D850">
+        <v>60</v>
+      </c>
+      <c r="E850">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" hidden="1">
+      <c r="A851" t="s">
+        <v>161</v>
+      </c>
+      <c r="C851">
+        <v>30</v>
+      </c>
+      <c r="D851">
+        <v>20</v>
+      </c>
+      <c r="E851">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" hidden="1">
+      <c r="A852" t="s">
+        <v>162</v>
+      </c>
+      <c r="C852">
+        <v>70</v>
+      </c>
+      <c r="D852">
+        <v>40</v>
+      </c>
+      <c r="E852">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" hidden="1">
+      <c r="A853" t="s">
+        <v>163</v>
+      </c>
+      <c r="C853">
+        <v>10</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" hidden="1">
+      <c r="A854" t="s">
+        <v>164</v>
+      </c>
+      <c r="C854">
+        <v>30</v>
+      </c>
+      <c r="D854">
+        <v>80</v>
+      </c>
+      <c r="E854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" hidden="1">
+      <c r="A855" t="s">
+        <v>165</v>
+      </c>
+      <c r="C855">
+        <v>20</v>
+      </c>
+      <c r="D855">
+        <v>60</v>
+      </c>
+      <c r="E855">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" hidden="1">
+      <c r="A856" t="s">
+        <v>166</v>
+      </c>
+      <c r="C856">
+        <v>30</v>
+      </c>
+      <c r="D856">
+        <v>40</v>
+      </c>
+      <c r="E856">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" hidden="1">
+      <c r="A857" t="s">
+        <v>167</v>
+      </c>
+      <c r="C857">
+        <v>10</v>
+      </c>
+      <c r="D857">
+        <v>40</v>
+      </c>
+      <c r="E857">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" hidden="1">
+      <c r="A858" t="s">
+        <v>168</v>
+      </c>
+      <c r="C858">
+        <v>40</v>
+      </c>
+      <c r="D858">
+        <v>20</v>
+      </c>
+      <c r="E858">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" hidden="1">
+      <c r="A859" t="s">
+        <v>169</v>
+      </c>
+      <c r="C859">
+        <v>10</v>
+      </c>
+      <c r="D859">
+        <v>60</v>
+      </c>
+      <c r="E859">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" hidden="1">
+      <c r="A860" t="s">
+        <v>170</v>
+      </c>
+      <c r="C860">
+        <v>30</v>
+      </c>
+      <c r="D860">
+        <v>100</v>
+      </c>
+      <c r="E860">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" hidden="1">
+      <c r="A861" t="s">
+        <v>171</v>
+      </c>
+      <c r="C861">
+        <v>20</v>
+      </c>
+      <c r="D861">
+        <v>60</v>
+      </c>
+      <c r="E861">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" hidden="1">
+      <c r="A862" t="s">
+        <v>172</v>
+      </c>
+      <c r="C862">
+        <v>30</v>
+      </c>
+      <c r="D862">
+        <v>40</v>
+      </c>
+      <c r="E862">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" hidden="1">
+      <c r="A863" t="s">
+        <v>173</v>
+      </c>
+      <c r="C863">
+        <v>60</v>
+      </c>
+      <c r="D863">
+        <v>80</v>
+      </c>
+      <c r="E863">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" hidden="1">
+      <c r="A864" t="s">
+        <v>174</v>
+      </c>
+      <c r="C864">
+        <v>20</v>
+      </c>
+      <c r="D864">
+        <v>60</v>
+      </c>
+      <c r="E864">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" hidden="1">
+      <c r="A865" t="s">
+        <v>175</v>
+      </c>
+      <c r="C865">
+        <v>50</v>
+      </c>
+      <c r="D865">
+        <v>100</v>
+      </c>
+      <c r="E865">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" hidden="1">
+      <c r="A866" t="s">
+        <v>176</v>
+      </c>
+      <c r="C866">
+        <v>30</v>
+      </c>
+      <c r="D866">
+        <v>20</v>
+      </c>
+      <c r="E866">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" hidden="1">
+      <c r="A867" t="s">
+        <v>177</v>
+      </c>
+      <c r="C867">
+        <v>80</v>
+      </c>
+      <c r="D867">
+        <v>80</v>
+      </c>
+      <c r="E867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" hidden="1">
+      <c r="A868" t="s">
+        <v>178</v>
+      </c>
+      <c r="C868">
+        <v>0</v>
+      </c>
+      <c r="D868">
+        <v>100</v>
+      </c>
+      <c r="E868">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" hidden="1">
+      <c r="A869" t="s">
+        <v>179</v>
+      </c>
+      <c r="C869">
+        <v>20</v>
+      </c>
+      <c r="D869">
+        <v>40</v>
+      </c>
+      <c r="E869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" hidden="1">
+      <c r="A870" t="s">
+        <v>180</v>
+      </c>
+      <c r="C870">
+        <v>60</v>
+      </c>
+      <c r="D870">
+        <v>60</v>
+      </c>
+      <c r="E870">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" hidden="1">
+      <c r="A871" t="s">
+        <v>181</v>
+      </c>
+      <c r="C871">
+        <v>70</v>
+      </c>
+      <c r="D871">
+        <v>60</v>
+      </c>
+      <c r="E871">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" hidden="1">
+      <c r="A872" t="s">
+        <v>182</v>
+      </c>
+      <c r="C872">
+        <v>30</v>
+      </c>
+      <c r="D872">
+        <v>80</v>
+      </c>
+      <c r="E872">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" hidden="1">
+      <c r="A873" t="s">
+        <v>183</v>
+      </c>
+      <c r="C873">
+        <v>70</v>
+      </c>
+      <c r="D873">
+        <v>60</v>
+      </c>
+      <c r="E873">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" hidden="1">
+      <c r="A874" t="s">
+        <v>184</v>
+      </c>
+      <c r="C874">
+        <v>20</v>
+      </c>
+      <c r="D874">
+        <v>40</v>
+      </c>
+      <c r="E874">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" hidden="1">
+      <c r="A875" t="s">
+        <v>185</v>
+      </c>
+      <c r="C875">
+        <v>20</v>
+      </c>
+      <c r="D875">
+        <v>60</v>
+      </c>
+      <c r="E875">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" hidden="1">
+      <c r="A876" t="s">
+        <v>186</v>
+      </c>
+      <c r="C876">
+        <v>20</v>
+      </c>
+      <c r="D876">
+        <v>40</v>
+      </c>
+      <c r="E876">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" hidden="1">
+      <c r="A877" t="s">
+        <v>187</v>
+      </c>
+      <c r="C877">
+        <v>90</v>
+      </c>
+      <c r="D877">
+        <v>60</v>
+      </c>
+      <c r="E877">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" hidden="1">
+      <c r="A878" t="s">
+        <v>188</v>
+      </c>
+      <c r="C878">
+        <v>20</v>
+      </c>
+      <c r="D878">
+        <v>60</v>
+      </c>
+      <c r="E878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" hidden="1">
+      <c r="A879" t="s">
+        <v>189</v>
+      </c>
+      <c r="C879">
+        <v>0</v>
+      </c>
+      <c r="D879">
+        <v>20</v>
+      </c>
+      <c r="E879">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" hidden="1">
+      <c r="A880" t="s">
+        <v>190</v>
+      </c>
+      <c r="C880">
+        <v>40</v>
+      </c>
+      <c r="D880">
+        <v>60</v>
+      </c>
+      <c r="E880">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" hidden="1">
+      <c r="A881" t="s">
+        <v>191</v>
+      </c>
+      <c r="C881">
+        <v>30</v>
+      </c>
+      <c r="D881">
+        <v>20</v>
+      </c>
+      <c r="E881">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" hidden="1">
+      <c r="A882" t="s">
+        <v>192</v>
+      </c>
+      <c r="C882">
+        <v>20</v>
+      </c>
+      <c r="D882">
+        <v>100</v>
+      </c>
+      <c r="E882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" hidden="1">
+      <c r="A883" t="s">
+        <v>193</v>
+      </c>
+      <c r="C883">
+        <v>20</v>
+      </c>
+      <c r="D883">
+        <v>20</v>
+      </c>
+      <c r="E883">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" hidden="1">
+      <c r="A884" t="s">
+        <v>194</v>
+      </c>
+      <c r="C884">
+        <v>50</v>
+      </c>
+      <c r="D884">
+        <v>40</v>
+      </c>
+      <c r="E884">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" hidden="1">
+      <c r="A885" t="s">
+        <v>195</v>
+      </c>
+      <c r="C885">
+        <v>50</v>
+      </c>
+      <c r="D885">
+        <v>20</v>
+      </c>
+      <c r="E885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" hidden="1">
+      <c r="A886" t="s">
+        <v>196</v>
+      </c>
+      <c r="C886">
+        <v>20</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" hidden="1">
+      <c r="A887" t="s">
+        <v>197</v>
+      </c>
+      <c r="C887">
+        <v>30</v>
+      </c>
+      <c r="D887">
+        <v>40</v>
+      </c>
+      <c r="E887">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" hidden="1">
+      <c r="A888" t="s">
+        <v>198</v>
+      </c>
+      <c r="C888">
+        <v>30</v>
+      </c>
+      <c r="D888">
+        <v>60</v>
+      </c>
+      <c r="E888">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" hidden="1">
+      <c r="A889" t="s">
+        <v>199</v>
+      </c>
+      <c r="C889">
+        <v>70</v>
+      </c>
+      <c r="D889">
+        <v>60</v>
+      </c>
+      <c r="E889">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" hidden="1">
+      <c r="A890" t="s">
+        <v>200</v>
+      </c>
+      <c r="C890">
+        <v>70</v>
+      </c>
+      <c r="D890">
+        <v>60</v>
+      </c>
+      <c r="E890">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" hidden="1">
+      <c r="A891" t="s">
+        <v>201</v>
+      </c>
+      <c r="C891">
+        <v>40</v>
+      </c>
+      <c r="D891">
+        <v>60</v>
+      </c>
+      <c r="E891">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" hidden="1">
+      <c r="A892" t="s">
+        <v>202</v>
+      </c>
+      <c r="C892">
+        <v>60</v>
+      </c>
+      <c r="D892">
+        <v>40</v>
+      </c>
+      <c r="E892">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" hidden="1">
+      <c r="A893" t="s">
+        <v>203</v>
+      </c>
+      <c r="C893">
+        <v>30</v>
+      </c>
+      <c r="D893">
+        <v>20</v>
+      </c>
+      <c r="E893">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" hidden="1">
+      <c r="A894" t="s">
+        <v>204</v>
+      </c>
+      <c r="C894">
+        <v>40</v>
+      </c>
+      <c r="D894">
+        <v>60</v>
+      </c>
+      <c r="E894">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" hidden="1">
+      <c r="A895" t="s">
+        <v>205</v>
+      </c>
+      <c r="C895">
+        <v>70</v>
+      </c>
+      <c r="D895">
+        <v>60</v>
+      </c>
+      <c r="E895">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" hidden="1">
+      <c r="A896" t="s">
+        <v>206</v>
+      </c>
+      <c r="C896">
+        <v>20</v>
+      </c>
+      <c r="D896">
+        <v>60</v>
+      </c>
+      <c r="E896">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" hidden="1">
+      <c r="A897" t="s">
+        <v>207</v>
+      </c>
+      <c r="C897">
+        <v>20</v>
+      </c>
+      <c r="D897">
+        <v>40</v>
+      </c>
+      <c r="E897">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" hidden="1">
+      <c r="A898" t="s">
+        <v>208</v>
+      </c>
+      <c r="C898">
+        <v>20</v>
+      </c>
+      <c r="D898">
+        <v>40</v>
+      </c>
+      <c r="E898">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" hidden="1">
+      <c r="A899" t="s">
+        <v>209</v>
+      </c>
+      <c r="C899">
+        <v>50</v>
+      </c>
+      <c r="D899">
+        <v>40</v>
+      </c>
+      <c r="E899">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" hidden="1">
+      <c r="A900" t="s">
+        <v>210</v>
+      </c>
+      <c r="C900">
+        <v>50</v>
+      </c>
+      <c r="D900">
+        <v>80</v>
+      </c>
+      <c r="E900">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" hidden="1">
+      <c r="A901" t="s">
+        <v>211</v>
+      </c>
+      <c r="C901">
+        <v>30</v>
+      </c>
+      <c r="D901">
+        <v>40</v>
+      </c>
+      <c r="E901">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" hidden="1">
+      <c r="A902" t="s">
+        <v>212</v>
+      </c>
+      <c r="C902">
+        <v>40</v>
+      </c>
+      <c r="D902">
+        <v>80</v>
+      </c>
+      <c r="E902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" hidden="1">
+      <c r="A903" t="s">
+        <v>213</v>
+      </c>
+      <c r="C903">
+        <v>20</v>
+      </c>
+      <c r="D903">
+        <v>40</v>
+      </c>
+      <c r="E903">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" hidden="1">
+      <c r="A904" t="s">
+        <v>214</v>
+      </c>
+      <c r="C904">
+        <v>10</v>
+      </c>
+      <c r="D904">
+        <v>80</v>
+      </c>
+      <c r="E904">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" hidden="1">
+      <c r="A905" t="s">
+        <v>215</v>
+      </c>
+      <c r="C905">
+        <v>70</v>
+      </c>
+      <c r="D905">
+        <v>80</v>
+      </c>
+      <c r="E905">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" hidden="1">
+      <c r="A906" t="s">
+        <v>216</v>
+      </c>
+      <c r="C906">
+        <v>40</v>
+      </c>
+      <c r="D906">
+        <v>60</v>
+      </c>
+      <c r="E906">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" hidden="1">
+      <c r="A907" t="s">
+        <v>217</v>
+      </c>
+      <c r="C907">
+        <v>20</v>
+      </c>
+      <c r="D907">
+        <v>20</v>
+      </c>
+      <c r="E907">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" hidden="1">
+      <c r="A908" t="s">
+        <v>218</v>
+      </c>
+      <c r="C908">
+        <v>60</v>
+      </c>
+      <c r="D908">
+        <v>40</v>
+      </c>
+      <c r="E908">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" hidden="1">
+      <c r="A909" t="s">
+        <v>219</v>
+      </c>
+      <c r="C909">
+        <v>70</v>
+      </c>
+      <c r="D909">
+        <v>80</v>
+      </c>
+      <c r="E909">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" hidden="1">
+      <c r="A910" t="s">
+        <v>220</v>
+      </c>
+      <c r="C910">
+        <v>10</v>
+      </c>
+      <c r="D910">
+        <v>20</v>
+      </c>
+      <c r="E910">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" hidden="1">
+      <c r="A911" t="s">
+        <v>221</v>
+      </c>
+      <c r="C911">
+        <v>30</v>
+      </c>
+      <c r="D911">
+        <v>40</v>
+      </c>
+      <c r="E911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" hidden="1">
+      <c r="A912" t="s">
+        <v>222</v>
+      </c>
+      <c r="C912">
+        <v>20</v>
+      </c>
+      <c r="D912">
+        <v>40</v>
+      </c>
+      <c r="E912">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" hidden="1">
+      <c r="A913" t="s">
+        <v>223</v>
+      </c>
+      <c r="C913">
+        <v>40</v>
+      </c>
+      <c r="D913">
+        <v>80</v>
+      </c>
+      <c r="E913">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" hidden="1">
+      <c r="A914" t="s">
+        <v>224</v>
+      </c>
+      <c r="C914">
+        <v>70</v>
+      </c>
+      <c r="D914">
+        <v>40</v>
+      </c>
+      <c r="E914">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" hidden="1">
+      <c r="A915" t="s">
+        <v>225</v>
+      </c>
+      <c r="C915">
+        <v>70</v>
+      </c>
+      <c r="D915">
+        <v>80</v>
+      </c>
+      <c r="E915">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" hidden="1">
+      <c r="A916" t="s">
+        <v>226</v>
+      </c>
+      <c r="C916">
+        <v>30</v>
+      </c>
+      <c r="D916">
+        <v>40</v>
+      </c>
+      <c r="E916">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" hidden="1">
+      <c r="A917" t="s">
+        <v>227</v>
+      </c>
+      <c r="C917">
+        <v>30</v>
+      </c>
+      <c r="D917">
+        <v>60</v>
+      </c>
+      <c r="E917">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" hidden="1">
+      <c r="A918" t="s">
+        <v>232</v>
+      </c>
+      <c r="C918">
+        <v>40</v>
+      </c>
+      <c r="D918">
+        <v>60</v>
+      </c>
+      <c r="E918">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" hidden="1">
+      <c r="A919" t="s">
+        <v>230</v>
+      </c>
+      <c r="C919">
+        <v>40</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E919" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="412020022"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19993,7 +23225,7 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="5.3984375" bestFit="1" customWidth="1"/>
@@ -23259,7 +26491,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="5.3984375" bestFit="1" customWidth="1"/>

--- a/2025-biochem_molbio_score.xlsx
+++ b/2025-biochem_molbio_score.xlsx
@@ -23,24 +23,11 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -8296,10 +8283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1151"/>
+  <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1151" sqref="D1151"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18316,10 +18303,10 @@
         <v>365</v>
       </c>
       <c r="C591">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E591">
         <v>3</v>
@@ -26427,6 +26414,3242 @@
       </c>
       <c r="E1151">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1152">
+        <v>40</v>
+      </c>
+      <c r="D1152">
+        <v>80</v>
+      </c>
+      <c r="E1152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1153">
+        <v>40</v>
+      </c>
+      <c r="D1153">
+        <v>20</v>
+      </c>
+      <c r="E1153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1154">
+        <v>80</v>
+      </c>
+      <c r="E1154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1155">
+        <v>50</v>
+      </c>
+      <c r="D1155">
+        <v>60</v>
+      </c>
+      <c r="E1155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1156">
+        <v>40</v>
+      </c>
+      <c r="D1156">
+        <v>80</v>
+      </c>
+      <c r="E1156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1157">
+        <v>30</v>
+      </c>
+      <c r="E1157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1158">
+        <v>30</v>
+      </c>
+      <c r="E1158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1159">
+        <v>70</v>
+      </c>
+      <c r="D1159">
+        <v>80</v>
+      </c>
+      <c r="E1159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1160">
+        <v>100</v>
+      </c>
+      <c r="D1160">
+        <v>100</v>
+      </c>
+      <c r="E1160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1161">
+        <v>60</v>
+      </c>
+      <c r="D1161">
+        <v>80</v>
+      </c>
+      <c r="E1161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1162">
+        <v>90</v>
+      </c>
+      <c r="D1162">
+        <v>60</v>
+      </c>
+      <c r="E1162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1163">
+        <v>80</v>
+      </c>
+      <c r="D1163">
+        <v>100</v>
+      </c>
+      <c r="E1163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1164">
+        <v>50</v>
+      </c>
+      <c r="D1164">
+        <v>40</v>
+      </c>
+      <c r="E1164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1165">
+        <v>100</v>
+      </c>
+      <c r="D1165">
+        <v>80</v>
+      </c>
+      <c r="E1165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1166">
+        <v>40</v>
+      </c>
+      <c r="D1166">
+        <v>80</v>
+      </c>
+      <c r="E1166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1167">
+        <v>50</v>
+      </c>
+      <c r="D1167">
+        <v>100</v>
+      </c>
+      <c r="E1167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1168">
+        <v>90</v>
+      </c>
+      <c r="D1168">
+        <v>60</v>
+      </c>
+      <c r="E1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1169">
+        <v>80</v>
+      </c>
+      <c r="D1169">
+        <v>60</v>
+      </c>
+      <c r="E1169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1170">
+        <v>50</v>
+      </c>
+      <c r="D1170">
+        <v>60</v>
+      </c>
+      <c r="E1170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1171">
+        <v>70</v>
+      </c>
+      <c r="D1171">
+        <v>40</v>
+      </c>
+      <c r="E1171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1172">
+        <v>90</v>
+      </c>
+      <c r="D1172">
+        <v>40</v>
+      </c>
+      <c r="E1172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1173">
+        <v>20</v>
+      </c>
+      <c r="D1173">
+        <v>100</v>
+      </c>
+      <c r="E1173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1174">
+        <v>80</v>
+      </c>
+      <c r="D1174">
+        <v>60</v>
+      </c>
+      <c r="E1174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1175">
+        <v>70</v>
+      </c>
+      <c r="D1175">
+        <v>80</v>
+      </c>
+      <c r="E1175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1176">
+        <v>90</v>
+      </c>
+      <c r="D1176">
+        <v>60</v>
+      </c>
+      <c r="E1176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1177">
+        <v>90</v>
+      </c>
+      <c r="D1177">
+        <v>100</v>
+      </c>
+      <c r="E1177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1178">
+        <v>60</v>
+      </c>
+      <c r="D1178">
+        <v>60</v>
+      </c>
+      <c r="E1178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1179">
+        <v>80</v>
+      </c>
+      <c r="D1179">
+        <v>40</v>
+      </c>
+      <c r="E1179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1180">
+        <v>80</v>
+      </c>
+      <c r="D1180">
+        <v>80</v>
+      </c>
+      <c r="E1180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1181">
+        <v>70</v>
+      </c>
+      <c r="D1181">
+        <v>100</v>
+      </c>
+      <c r="E1181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1182">
+        <v>50</v>
+      </c>
+      <c r="D1182">
+        <v>40</v>
+      </c>
+      <c r="E1182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1183">
+        <v>60</v>
+      </c>
+      <c r="D1183">
+        <v>20</v>
+      </c>
+      <c r="E1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1184">
+        <v>30</v>
+      </c>
+      <c r="D1184">
+        <v>40</v>
+      </c>
+      <c r="E1184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1185">
+        <v>70</v>
+      </c>
+      <c r="D1185">
+        <v>80</v>
+      </c>
+      <c r="E1185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1186">
+        <v>20</v>
+      </c>
+      <c r="D1186">
+        <v>40</v>
+      </c>
+      <c r="E1186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1187">
+        <v>80</v>
+      </c>
+      <c r="D1187">
+        <v>60</v>
+      </c>
+      <c r="E1187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1188">
+        <v>40</v>
+      </c>
+      <c r="D1188">
+        <v>20</v>
+      </c>
+      <c r="E1188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1189">
+        <v>40</v>
+      </c>
+      <c r="D1189">
+        <v>60</v>
+      </c>
+      <c r="E1189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1190">
+        <v>70</v>
+      </c>
+      <c r="D1190">
+        <v>60</v>
+      </c>
+      <c r="E1190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1191">
+        <v>20</v>
+      </c>
+      <c r="D1191">
+        <v>20</v>
+      </c>
+      <c r="E1191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1192">
+        <v>50</v>
+      </c>
+      <c r="D1192">
+        <v>60</v>
+      </c>
+      <c r="E1192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1193">
+        <v>40</v>
+      </c>
+      <c r="D1193">
+        <v>40</v>
+      </c>
+      <c r="E1193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1194">
+        <v>50</v>
+      </c>
+      <c r="D1194">
+        <v>60</v>
+      </c>
+      <c r="E1194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1195">
+        <v>40</v>
+      </c>
+      <c r="D1195">
+        <v>40</v>
+      </c>
+      <c r="E1195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1196">
+        <v>60</v>
+      </c>
+      <c r="D1196">
+        <v>80</v>
+      </c>
+      <c r="E1196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1197">
+        <v>40</v>
+      </c>
+      <c r="D1197">
+        <v>60</v>
+      </c>
+      <c r="E1197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1198">
+        <v>90</v>
+      </c>
+      <c r="D1198">
+        <v>100</v>
+      </c>
+      <c r="E1198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1199">
+        <v>60</v>
+      </c>
+      <c r="D1199">
+        <v>80</v>
+      </c>
+      <c r="E1199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1200">
+        <v>60</v>
+      </c>
+      <c r="D1200">
+        <v>80</v>
+      </c>
+      <c r="E1200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1201">
+        <v>60</v>
+      </c>
+      <c r="D1201">
+        <v>60</v>
+      </c>
+      <c r="E1201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1202">
+        <v>50</v>
+      </c>
+      <c r="D1202">
+        <v>80</v>
+      </c>
+      <c r="E1202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1203">
+        <v>50</v>
+      </c>
+      <c r="D1203">
+        <v>80</v>
+      </c>
+      <c r="E1203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1204">
+        <v>80</v>
+      </c>
+      <c r="D1204">
+        <v>80</v>
+      </c>
+      <c r="E1204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1205">
+        <v>20</v>
+      </c>
+      <c r="D1205">
+        <v>40</v>
+      </c>
+      <c r="E1205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1206">
+        <v>70</v>
+      </c>
+      <c r="D1206">
+        <v>20</v>
+      </c>
+      <c r="E1206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1207">
+        <v>20</v>
+      </c>
+      <c r="D1207">
+        <v>60</v>
+      </c>
+      <c r="E1207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1208">
+        <v>50</v>
+      </c>
+      <c r="D1208">
+        <v>60</v>
+      </c>
+      <c r="E1208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1209">
+        <v>50</v>
+      </c>
+      <c r="D1209">
+        <v>60</v>
+      </c>
+      <c r="E1209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1210">
+        <v>60</v>
+      </c>
+      <c r="D1210">
+        <v>40</v>
+      </c>
+      <c r="E1210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1211">
+        <v>50</v>
+      </c>
+      <c r="D1211">
+        <v>80</v>
+      </c>
+      <c r="E1211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1212">
+        <v>40</v>
+      </c>
+      <c r="D1212">
+        <v>60</v>
+      </c>
+      <c r="E1212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1213">
+        <v>10</v>
+      </c>
+      <c r="D1213">
+        <v>60</v>
+      </c>
+      <c r="E1213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1214">
+        <v>30</v>
+      </c>
+      <c r="D1214">
+        <v>60</v>
+      </c>
+      <c r="E1214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1215">
+        <v>90</v>
+      </c>
+      <c r="D1215">
+        <v>100</v>
+      </c>
+      <c r="E1215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1216">
+        <v>70</v>
+      </c>
+      <c r="D1216">
+        <v>80</v>
+      </c>
+      <c r="E1216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1217">
+        <v>30</v>
+      </c>
+      <c r="D1217">
+        <v>60</v>
+      </c>
+      <c r="E1217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1218">
+        <v>40</v>
+      </c>
+      <c r="D1218">
+        <v>60</v>
+      </c>
+      <c r="E1218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1219">
+        <v>20</v>
+      </c>
+      <c r="D1219">
+        <v>40</v>
+      </c>
+      <c r="E1219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1220">
+        <v>60</v>
+      </c>
+      <c r="D1220">
+        <v>80</v>
+      </c>
+      <c r="E1220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1221">
+        <v>80</v>
+      </c>
+      <c r="D1221">
+        <v>80</v>
+      </c>
+      <c r="E1221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1222">
+        <v>40</v>
+      </c>
+      <c r="D1222">
+        <v>40</v>
+      </c>
+      <c r="E1222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1223">
+        <v>70</v>
+      </c>
+      <c r="D1223">
+        <v>20</v>
+      </c>
+      <c r="E1223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1224">
+        <v>50</v>
+      </c>
+      <c r="D1224">
+        <v>40</v>
+      </c>
+      <c r="E1224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1225">
+        <v>90</v>
+      </c>
+      <c r="D1225">
+        <v>80</v>
+      </c>
+      <c r="E1225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1226">
+        <v>60</v>
+      </c>
+      <c r="D1226">
+        <v>60</v>
+      </c>
+      <c r="E1226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1227">
+        <v>60</v>
+      </c>
+      <c r="D1227">
+        <v>60</v>
+      </c>
+      <c r="E1227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1228">
+        <v>70</v>
+      </c>
+      <c r="D1228">
+        <v>20</v>
+      </c>
+      <c r="E1228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1229">
+        <v>30</v>
+      </c>
+      <c r="D1229">
+        <v>60</v>
+      </c>
+      <c r="E1229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1230">
+        <v>80</v>
+      </c>
+      <c r="D1230">
+        <v>80</v>
+      </c>
+      <c r="E1230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1231">
+        <v>60</v>
+      </c>
+      <c r="D1231">
+        <v>60</v>
+      </c>
+      <c r="E1231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1232">
+        <v>80</v>
+      </c>
+      <c r="D1232">
+        <v>40</v>
+      </c>
+      <c r="E1232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1233">
+        <v>50</v>
+      </c>
+      <c r="D1233">
+        <v>40</v>
+      </c>
+      <c r="E1233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1234">
+        <v>50</v>
+      </c>
+      <c r="D1234">
+        <v>80</v>
+      </c>
+      <c r="E1234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1235">
+        <v>60</v>
+      </c>
+      <c r="D1235">
+        <v>80</v>
+      </c>
+      <c r="E1235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1236">
+        <v>50</v>
+      </c>
+      <c r="D1236">
+        <v>60</v>
+      </c>
+      <c r="E1236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1237">
+        <v>70</v>
+      </c>
+      <c r="D1237">
+        <v>80</v>
+      </c>
+      <c r="E1237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1238">
+        <v>40</v>
+      </c>
+      <c r="D1238">
+        <v>60</v>
+      </c>
+      <c r="E1238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1239">
+        <v>90</v>
+      </c>
+      <c r="D1239">
+        <v>80</v>
+      </c>
+      <c r="E1239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1240">
+        <v>50</v>
+      </c>
+      <c r="D1240">
+        <v>40</v>
+      </c>
+      <c r="E1240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1241">
+        <v>50</v>
+      </c>
+      <c r="D1241">
+        <v>60</v>
+      </c>
+      <c r="E1241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1242">
+        <v>60</v>
+      </c>
+      <c r="D1242">
+        <v>80</v>
+      </c>
+      <c r="E1242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1243">
+        <v>20</v>
+      </c>
+      <c r="D1243">
+        <v>80</v>
+      </c>
+      <c r="E1243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1244">
+        <v>30</v>
+      </c>
+      <c r="D1244">
+        <v>60</v>
+      </c>
+      <c r="E1244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1245">
+        <v>50</v>
+      </c>
+      <c r="D1245">
+        <v>40</v>
+      </c>
+      <c r="E1245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1246">
+        <v>90</v>
+      </c>
+      <c r="D1246">
+        <v>80</v>
+      </c>
+      <c r="E1246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1247">
+        <v>50</v>
+      </c>
+      <c r="D1247">
+        <v>40</v>
+      </c>
+      <c r="E1247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1248">
+        <v>60</v>
+      </c>
+      <c r="D1248">
+        <v>80</v>
+      </c>
+      <c r="E1248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1249">
+        <v>60</v>
+      </c>
+      <c r="D1249">
+        <v>80</v>
+      </c>
+      <c r="E1249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1250">
+        <v>40</v>
+      </c>
+      <c r="D1250">
+        <v>60</v>
+      </c>
+      <c r="E1250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1251">
+        <v>60</v>
+      </c>
+      <c r="D1251">
+        <v>40</v>
+      </c>
+      <c r="E1251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1252">
+        <v>50</v>
+      </c>
+      <c r="D1252">
+        <v>40</v>
+      </c>
+      <c r="E1252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1253">
+        <v>60</v>
+      </c>
+      <c r="D1253">
+        <v>60</v>
+      </c>
+      <c r="E1253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1254">
+        <v>40</v>
+      </c>
+      <c r="D1254">
+        <v>0</v>
+      </c>
+      <c r="E1254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1255">
+        <v>80</v>
+      </c>
+      <c r="D1255">
+        <v>100</v>
+      </c>
+      <c r="E1255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1256">
+        <v>90</v>
+      </c>
+      <c r="D1256">
+        <v>80</v>
+      </c>
+      <c r="E1256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1257">
+        <v>80</v>
+      </c>
+      <c r="D1257">
+        <v>100</v>
+      </c>
+      <c r="E1257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1258">
+        <v>70</v>
+      </c>
+      <c r="D1258">
+        <v>40</v>
+      </c>
+      <c r="E1258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1259">
+        <v>80</v>
+      </c>
+      <c r="D1259">
+        <v>80</v>
+      </c>
+      <c r="E1259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1260">
+        <v>10</v>
+      </c>
+      <c r="D1260">
+        <v>80</v>
+      </c>
+      <c r="E1260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1261">
+        <v>60</v>
+      </c>
+      <c r="D1261">
+        <v>60</v>
+      </c>
+      <c r="E1261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1262">
+        <v>10</v>
+      </c>
+      <c r="D1262">
+        <v>40</v>
+      </c>
+      <c r="E1262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1263">
+        <v>70</v>
+      </c>
+      <c r="D1263">
+        <v>80</v>
+      </c>
+      <c r="E1263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1264">
+        <v>90</v>
+      </c>
+      <c r="D1264">
+        <v>20</v>
+      </c>
+      <c r="E1264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1265">
+        <v>10</v>
+      </c>
+      <c r="D1265">
+        <v>20</v>
+      </c>
+      <c r="E1265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1266">
+        <v>10</v>
+      </c>
+      <c r="D1266">
+        <v>40</v>
+      </c>
+      <c r="E1266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1267">
+        <v>60</v>
+      </c>
+      <c r="D1267">
+        <v>100</v>
+      </c>
+      <c r="E1267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1268">
+        <v>50</v>
+      </c>
+      <c r="D1268">
+        <v>100</v>
+      </c>
+      <c r="E1268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1269">
+        <v>30</v>
+      </c>
+      <c r="D1269">
+        <v>80</v>
+      </c>
+      <c r="E1269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1270">
+        <v>80</v>
+      </c>
+      <c r="D1270">
+        <v>80</v>
+      </c>
+      <c r="E1270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1271">
+        <v>60</v>
+      </c>
+      <c r="D1271">
+        <v>40</v>
+      </c>
+      <c r="E1271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1272">
+        <v>40</v>
+      </c>
+      <c r="D1272">
+        <v>80</v>
+      </c>
+      <c r="E1272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1273">
+        <v>90</v>
+      </c>
+      <c r="D1273">
+        <v>100</v>
+      </c>
+      <c r="E1273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1274">
+        <v>60</v>
+      </c>
+      <c r="D1274">
+        <v>40</v>
+      </c>
+      <c r="E1274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1275">
+        <v>100</v>
+      </c>
+      <c r="D1275">
+        <v>80</v>
+      </c>
+      <c r="E1275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1276">
+        <v>70</v>
+      </c>
+      <c r="D1276">
+        <v>60</v>
+      </c>
+      <c r="E1276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1277">
+        <v>50</v>
+      </c>
+      <c r="D1277">
+        <v>60</v>
+      </c>
+      <c r="E1277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1278">
+        <v>40</v>
+      </c>
+      <c r="D1278">
+        <v>40</v>
+      </c>
+      <c r="E1278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1279">
+        <v>30</v>
+      </c>
+      <c r="D1279">
+        <v>40</v>
+      </c>
+      <c r="E1279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1280">
+        <v>50</v>
+      </c>
+      <c r="D1280">
+        <v>80</v>
+      </c>
+      <c r="E1280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1281">
+        <v>50</v>
+      </c>
+      <c r="D1281">
+        <v>80</v>
+      </c>
+      <c r="E1281">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1282">
+        <v>100</v>
+      </c>
+      <c r="D1282">
+        <v>80</v>
+      </c>
+      <c r="E1282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1283">
+        <v>50</v>
+      </c>
+      <c r="D1283">
+        <v>40</v>
+      </c>
+      <c r="E1283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1284">
+        <v>20</v>
+      </c>
+      <c r="D1284">
+        <v>40</v>
+      </c>
+      <c r="E1284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1285">
+        <v>60</v>
+      </c>
+      <c r="D1285">
+        <v>60</v>
+      </c>
+      <c r="E1285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1286">
+        <v>100</v>
+      </c>
+      <c r="D1286">
+        <v>40</v>
+      </c>
+      <c r="E1286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1287">
+        <v>40</v>
+      </c>
+      <c r="D1287">
+        <v>20</v>
+      </c>
+      <c r="E1287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1288">
+        <v>0</v>
+      </c>
+      <c r="D1288">
+        <v>100</v>
+      </c>
+      <c r="E1288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1289">
+        <v>70</v>
+      </c>
+      <c r="D1289">
+        <v>20</v>
+      </c>
+      <c r="E1289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1290">
+        <v>70</v>
+      </c>
+      <c r="D1290">
+        <v>100</v>
+      </c>
+      <c r="E1290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1291">
+        <v>20</v>
+      </c>
+      <c r="D1291">
+        <v>60</v>
+      </c>
+      <c r="E1291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1292">
+        <v>20</v>
+      </c>
+      <c r="D1292">
+        <v>40</v>
+      </c>
+      <c r="E1292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1293">
+        <v>50</v>
+      </c>
+      <c r="D1293">
+        <v>20</v>
+      </c>
+      <c r="E1293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1294">
+        <v>30</v>
+      </c>
+      <c r="D1294">
+        <v>60</v>
+      </c>
+      <c r="E1294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1295">
+        <v>90</v>
+      </c>
+      <c r="D1295">
+        <v>60</v>
+      </c>
+      <c r="E1295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1296">
+        <v>40</v>
+      </c>
+      <c r="D1296">
+        <v>20</v>
+      </c>
+      <c r="E1296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1297">
+        <v>40</v>
+      </c>
+      <c r="D1297">
+        <v>80</v>
+      </c>
+      <c r="E1297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1298">
+        <v>70</v>
+      </c>
+      <c r="D1298">
+        <v>80</v>
+      </c>
+      <c r="E1298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1299">
+        <v>80</v>
+      </c>
+      <c r="D1299">
+        <v>60</v>
+      </c>
+      <c r="E1299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1300">
+        <v>50</v>
+      </c>
+      <c r="D1300">
+        <v>40</v>
+      </c>
+      <c r="E1300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1301">
+        <v>90</v>
+      </c>
+      <c r="D1301">
+        <v>100</v>
+      </c>
+      <c r="E1301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1302">
+        <v>60</v>
+      </c>
+      <c r="D1302">
+        <v>80</v>
+      </c>
+      <c r="E1302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1303">
+        <v>70</v>
+      </c>
+      <c r="D1303">
+        <v>80</v>
+      </c>
+      <c r="E1303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1304">
+        <v>60</v>
+      </c>
+      <c r="D1304">
+        <v>60</v>
+      </c>
+      <c r="E1304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1305">
+        <v>60</v>
+      </c>
+      <c r="D1305">
+        <v>60</v>
+      </c>
+      <c r="E1305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1306">
+        <v>40</v>
+      </c>
+      <c r="D1306">
+        <v>80</v>
+      </c>
+      <c r="E1306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1307">
+        <v>60</v>
+      </c>
+      <c r="D1307">
+        <v>40</v>
+      </c>
+      <c r="E1307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1308">
+        <v>20</v>
+      </c>
+      <c r="D1308">
+        <v>80</v>
+      </c>
+      <c r="E1308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1309">
+        <v>80</v>
+      </c>
+      <c r="D1309">
+        <v>80</v>
+      </c>
+      <c r="E1309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1310">
+        <v>40</v>
+      </c>
+      <c r="D1310">
+        <v>40</v>
+      </c>
+      <c r="E1310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1311">
+        <v>50</v>
+      </c>
+      <c r="D1311">
+        <v>40</v>
+      </c>
+      <c r="E1311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1312">
+        <v>70</v>
+      </c>
+      <c r="D1312">
+        <v>80</v>
+      </c>
+      <c r="E1312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1313">
+        <v>70</v>
+      </c>
+      <c r="D1313">
+        <v>80</v>
+      </c>
+      <c r="E1313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1314">
+        <v>70</v>
+      </c>
+      <c r="D1314">
+        <v>40</v>
+      </c>
+      <c r="E1314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1315">
+        <v>20</v>
+      </c>
+      <c r="D1315">
+        <v>60</v>
+      </c>
+      <c r="E1315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1316">
+        <v>70</v>
+      </c>
+      <c r="D1316">
+        <v>40</v>
+      </c>
+      <c r="E1316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1317">
+        <v>0</v>
+      </c>
+      <c r="D1317">
+        <v>40</v>
+      </c>
+      <c r="E1317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1318">
+        <v>50</v>
+      </c>
+      <c r="D1318">
+        <v>60</v>
+      </c>
+      <c r="E1318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1319">
+        <v>40</v>
+      </c>
+      <c r="D1319">
+        <v>60</v>
+      </c>
+      <c r="E1319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1320">
+        <v>90</v>
+      </c>
+      <c r="D1320">
+        <v>60</v>
+      </c>
+      <c r="E1320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1321">
+        <v>10</v>
+      </c>
+      <c r="D1321">
+        <v>40</v>
+      </c>
+      <c r="E1321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1322">
+        <v>80</v>
+      </c>
+      <c r="D1322">
+        <v>60</v>
+      </c>
+      <c r="E1322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1323">
+        <v>60</v>
+      </c>
+      <c r="D1323">
+        <v>20</v>
+      </c>
+      <c r="E1323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1324">
+        <v>70</v>
+      </c>
+      <c r="D1324">
+        <v>80</v>
+      </c>
+      <c r="E1324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1325">
+        <v>40</v>
+      </c>
+      <c r="D1325">
+        <v>60</v>
+      </c>
+      <c r="E1325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1326">
+        <v>60</v>
+      </c>
+      <c r="D1326">
+        <v>40</v>
+      </c>
+      <c r="E1326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1327">
+        <v>60</v>
+      </c>
+      <c r="D1327">
+        <v>80</v>
+      </c>
+      <c r="E1327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1328">
+        <v>10</v>
+      </c>
+      <c r="D1328">
+        <v>40</v>
+      </c>
+      <c r="E1328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1329">
+        <v>70</v>
+      </c>
+      <c r="D1329">
+        <v>100</v>
+      </c>
+      <c r="E1329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1330">
+        <v>40</v>
+      </c>
+      <c r="D1330">
+        <v>40</v>
+      </c>
+      <c r="E1330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1331">
+        <v>90</v>
+      </c>
+      <c r="D1331">
+        <v>80</v>
+      </c>
+      <c r="E1331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1332">
+        <v>80</v>
+      </c>
+      <c r="D1332">
+        <v>80</v>
+      </c>
+      <c r="E1332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1333">
+        <v>80</v>
+      </c>
+      <c r="D1333">
+        <v>40</v>
+      </c>
+      <c r="E1333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1334">
+        <v>50</v>
+      </c>
+      <c r="D1334">
+        <v>80</v>
+      </c>
+      <c r="E1334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1335">
+        <v>70</v>
+      </c>
+      <c r="D1335">
+        <v>60</v>
+      </c>
+      <c r="E1335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1336">
+        <v>70</v>
+      </c>
+      <c r="D1336">
+        <v>60</v>
+      </c>
+      <c r="E1336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1337">
+        <v>40</v>
+      </c>
+      <c r="D1337">
+        <v>60</v>
+      </c>
+      <c r="E1337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1338">
+        <v>100</v>
+      </c>
+      <c r="D1338">
+        <v>80</v>
+      </c>
+      <c r="E1338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1339">
+        <v>90</v>
+      </c>
+      <c r="D1339">
+        <v>100</v>
+      </c>
+      <c r="E1339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1340">
+        <v>50</v>
+      </c>
+      <c r="D1340">
+        <v>60</v>
+      </c>
+      <c r="E1340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1341">
+        <v>60</v>
+      </c>
+      <c r="D1341">
+        <v>80</v>
+      </c>
+      <c r="E1341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1342">
+        <v>60</v>
+      </c>
+      <c r="D1342">
+        <v>60</v>
+      </c>
+      <c r="E1342">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1343">
+        <v>50</v>
+      </c>
+      <c r="D1343">
+        <v>60</v>
+      </c>
+      <c r="E1343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1344">
+        <v>70</v>
+      </c>
+      <c r="D1344">
+        <v>60</v>
+      </c>
+      <c r="E1344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1345">
+        <v>50</v>
+      </c>
+      <c r="D1345">
+        <v>20</v>
+      </c>
+      <c r="E1345">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1346">
+        <v>30</v>
+      </c>
+      <c r="D1346">
+        <v>20</v>
+      </c>
+      <c r="E1346">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1347">
+        <v>10</v>
+      </c>
+      <c r="D1347">
+        <v>60</v>
+      </c>
+      <c r="E1347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1348">
+        <v>70</v>
+      </c>
+      <c r="D1348">
+        <v>80</v>
+      </c>
+      <c r="E1348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1349">
+        <v>20</v>
+      </c>
+      <c r="D1349">
+        <v>60</v>
+      </c>
+      <c r="E1349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1350">
+        <v>50</v>
+      </c>
+      <c r="D1350">
+        <v>80</v>
+      </c>
+      <c r="E1350">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1351">
+        <v>60</v>
+      </c>
+      <c r="D1351">
+        <v>60</v>
+      </c>
+      <c r="E1351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1352">
+        <v>30</v>
+      </c>
+      <c r="D1352">
+        <v>40</v>
+      </c>
+      <c r="E1352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1353">
+        <v>40</v>
+      </c>
+      <c r="D1353">
+        <v>60</v>
+      </c>
+      <c r="E1353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1354">
+        <v>40</v>
+      </c>
+      <c r="D1354">
+        <v>40</v>
+      </c>
+      <c r="E1354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1355">
+        <v>50</v>
+      </c>
+      <c r="D1355">
+        <v>40</v>
+      </c>
+      <c r="E1355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1356">
+        <v>50</v>
+      </c>
+      <c r="D1356">
+        <v>40</v>
+      </c>
+      <c r="E1356">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1357">
+        <v>70</v>
+      </c>
+      <c r="D1357">
+        <v>40</v>
+      </c>
+      <c r="E1357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1358">
+        <v>50</v>
+      </c>
+      <c r="D1358">
+        <v>20</v>
+      </c>
+      <c r="E1358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1359">
+        <v>50</v>
+      </c>
+      <c r="D1359">
+        <v>60</v>
+      </c>
+      <c r="E1359">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1360">
+        <v>30</v>
+      </c>
+      <c r="D1360">
+        <v>20</v>
+      </c>
+      <c r="E1360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1361">
+        <v>40</v>
+      </c>
+      <c r="D1361">
+        <v>80</v>
+      </c>
+      <c r="E1361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1362">
+        <v>10</v>
+      </c>
+      <c r="D1362">
+        <v>0</v>
+      </c>
+      <c r="E1362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1363">
+        <v>20</v>
+      </c>
+      <c r="D1363">
+        <v>40</v>
+      </c>
+      <c r="E1363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1364">
+        <v>70</v>
+      </c>
+      <c r="D1364">
+        <v>60</v>
+      </c>
+      <c r="E1364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1365">
+        <v>20</v>
+      </c>
+      <c r="D1365">
+        <v>40</v>
+      </c>
+      <c r="E1365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1366">
+        <v>70</v>
+      </c>
+      <c r="D1366">
+        <v>60</v>
+      </c>
+      <c r="E1366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1367">
+        <v>60</v>
+      </c>
+      <c r="D1367">
+        <v>60</v>
+      </c>
+      <c r="E1367">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1368">
+        <v>40</v>
+      </c>
+      <c r="D1368">
+        <v>20</v>
+      </c>
+      <c r="E1368">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1369">
+        <v>70</v>
+      </c>
+      <c r="D1369">
+        <v>60</v>
+      </c>
+      <c r="E1369">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1370">
+        <v>40</v>
+      </c>
+      <c r="D1370">
+        <v>80</v>
+      </c>
+      <c r="E1370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1371">
+        <v>40</v>
+      </c>
+      <c r="D1371">
+        <v>40</v>
+      </c>
+      <c r="E1371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1372">
+        <v>90</v>
+      </c>
+      <c r="D1372">
+        <v>80</v>
+      </c>
+      <c r="E1372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1373">
+        <v>90</v>
+      </c>
+      <c r="D1373">
+        <v>60</v>
+      </c>
+      <c r="E1373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1374">
+        <v>10</v>
+      </c>
+      <c r="D1374">
+        <v>80</v>
+      </c>
+      <c r="E1374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1375">
+        <v>60</v>
+      </c>
+      <c r="D1375">
+        <v>40</v>
+      </c>
+      <c r="E1375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1376">
+        <v>50</v>
+      </c>
+      <c r="D1376">
+        <v>0</v>
+      </c>
+      <c r="E1376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1377">
+        <v>60</v>
+      </c>
+      <c r="D1377">
+        <v>0</v>
+      </c>
+      <c r="E1377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1378">
+        <v>40</v>
+      </c>
+      <c r="D1378">
+        <v>60</v>
+      </c>
+      <c r="E1378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1379">
+        <v>50</v>
+      </c>
+      <c r="D1379">
+        <v>60</v>
+      </c>
+      <c r="E1379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1380">
+        <v>50</v>
+      </c>
+      <c r="D1380">
+        <v>60</v>
+      </c>
+      <c r="E1380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1381">
+        <v>30</v>
+      </c>
+      <c r="D1381">
+        <v>60</v>
+      </c>
+      <c r="E1381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1382">
+        <v>80</v>
+      </c>
+      <c r="D1382">
+        <v>80</v>
+      </c>
+      <c r="E1382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1383">
+        <v>60</v>
+      </c>
+      <c r="E1383">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -26441,7 +29664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>

--- a/2025-biochem_molbio_score.xlsx
+++ b/2025-biochem_molbio_score.xlsx
@@ -8285,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C687" sqref="C687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19918,10 +19918,10 @@
         <v>467</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D686">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E686">
         <v>3</v>
@@ -19935,7 +19935,7 @@
         <v>468</v>
       </c>
       <c r="C687">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E687">
         <v>3</v>

--- a/2025-biochem_molbio_score.xlsx
+++ b/2025-biochem_molbio_score.xlsx
@@ -8285,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C687" sqref="C687"/>
+    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G918" sqref="G918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19949,10 +19949,10 @@
         <v>470</v>
       </c>
       <c r="C688">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D688">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E688">
         <v>4</v>
@@ -23185,10 +23185,10 @@
         <v>469</v>
       </c>
       <c r="C920">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D920">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E920">
         <v>5</v>

--- a/2025-biochem_molbio_score.xlsx
+++ b/2025-biochem_molbio_score.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -8283,10 +8283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1383"/>
+  <dimension ref="A1:E1615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G918" sqref="G918"/>
+    <sheetView tabSelected="1" topLeftCell="A1610" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1158" sqref="D1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29650,6 +29650,3242 @@
       </c>
       <c r="E1383">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1384">
+        <v>100</v>
+      </c>
+      <c r="D1384">
+        <v>100</v>
+      </c>
+      <c r="E1384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1385">
+        <v>70</v>
+      </c>
+      <c r="D1385">
+        <v>40</v>
+      </c>
+      <c r="E1385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1386">
+        <v>80</v>
+      </c>
+      <c r="E1386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1387">
+        <v>40</v>
+      </c>
+      <c r="D1387">
+        <v>60</v>
+      </c>
+      <c r="E1387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1388">
+        <v>90</v>
+      </c>
+      <c r="D1388">
+        <v>80</v>
+      </c>
+      <c r="E1388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1389">
+        <v>50</v>
+      </c>
+      <c r="E1389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1390">
+        <v>90</v>
+      </c>
+      <c r="E1390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1391">
+        <v>100</v>
+      </c>
+      <c r="D1391">
+        <v>100</v>
+      </c>
+      <c r="E1391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1392">
+        <v>100</v>
+      </c>
+      <c r="D1392">
+        <v>100</v>
+      </c>
+      <c r="E1392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1393">
+        <v>90</v>
+      </c>
+      <c r="D1393">
+        <v>80</v>
+      </c>
+      <c r="E1393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1394">
+        <v>100</v>
+      </c>
+      <c r="D1394">
+        <v>80</v>
+      </c>
+      <c r="E1394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1395">
+        <v>100</v>
+      </c>
+      <c r="D1395">
+        <v>100</v>
+      </c>
+      <c r="E1395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1396">
+        <v>30</v>
+      </c>
+      <c r="D1396">
+        <v>60</v>
+      </c>
+      <c r="E1396">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1397">
+        <v>100</v>
+      </c>
+      <c r="D1397">
+        <v>100</v>
+      </c>
+      <c r="E1397">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1398">
+        <v>100</v>
+      </c>
+      <c r="D1398">
+        <v>60</v>
+      </c>
+      <c r="E1398">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1399">
+        <v>90</v>
+      </c>
+      <c r="D1399">
+        <v>60</v>
+      </c>
+      <c r="E1399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1400">
+        <v>80</v>
+      </c>
+      <c r="D1400">
+        <v>60</v>
+      </c>
+      <c r="E1400">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1401">
+        <v>100</v>
+      </c>
+      <c r="D1401">
+        <v>80</v>
+      </c>
+      <c r="E1401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1402">
+        <v>90</v>
+      </c>
+      <c r="D1402">
+        <v>60</v>
+      </c>
+      <c r="E1402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1403">
+        <v>70</v>
+      </c>
+      <c r="D1403">
+        <v>60</v>
+      </c>
+      <c r="E1403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1404">
+        <v>90</v>
+      </c>
+      <c r="D1404">
+        <v>100</v>
+      </c>
+      <c r="E1404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1405">
+        <v>90</v>
+      </c>
+      <c r="D1405">
+        <v>60</v>
+      </c>
+      <c r="E1405">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1406">
+        <v>80</v>
+      </c>
+      <c r="D1406">
+        <v>80</v>
+      </c>
+      <c r="E1406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1407">
+        <v>100</v>
+      </c>
+      <c r="D1407">
+        <v>60</v>
+      </c>
+      <c r="E1407">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1408">
+        <v>100</v>
+      </c>
+      <c r="D1408">
+        <v>80</v>
+      </c>
+      <c r="E1408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1409">
+        <v>100</v>
+      </c>
+      <c r="D1409">
+        <v>80</v>
+      </c>
+      <c r="E1409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1410">
+        <v>70</v>
+      </c>
+      <c r="D1410">
+        <v>100</v>
+      </c>
+      <c r="E1410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1411">
+        <v>40</v>
+      </c>
+      <c r="D1411">
+        <v>80</v>
+      </c>
+      <c r="E1411">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1412">
+        <v>90</v>
+      </c>
+      <c r="D1412">
+        <v>100</v>
+      </c>
+      <c r="E1412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1413">
+        <v>100</v>
+      </c>
+      <c r="D1413">
+        <v>100</v>
+      </c>
+      <c r="E1413">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1414">
+        <v>40</v>
+      </c>
+      <c r="D1414">
+        <v>40</v>
+      </c>
+      <c r="E1414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1415">
+        <v>100</v>
+      </c>
+      <c r="D1415">
+        <v>60</v>
+      </c>
+      <c r="E1415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1416">
+        <v>90</v>
+      </c>
+      <c r="D1416">
+        <v>80</v>
+      </c>
+      <c r="E1416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1417">
+        <v>90</v>
+      </c>
+      <c r="D1417">
+        <v>80</v>
+      </c>
+      <c r="E1417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1418">
+        <v>100</v>
+      </c>
+      <c r="D1418">
+        <v>40</v>
+      </c>
+      <c r="E1418">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1419">
+        <v>100</v>
+      </c>
+      <c r="D1419">
+        <v>80</v>
+      </c>
+      <c r="E1419">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1420">
+        <v>90</v>
+      </c>
+      <c r="D1420">
+        <v>40</v>
+      </c>
+      <c r="E1420">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1421">
+        <v>90</v>
+      </c>
+      <c r="D1421">
+        <v>60</v>
+      </c>
+      <c r="E1421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1422">
+        <v>100</v>
+      </c>
+      <c r="D1422">
+        <v>80</v>
+      </c>
+      <c r="E1422">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1423">
+        <v>50</v>
+      </c>
+      <c r="D1423">
+        <v>40</v>
+      </c>
+      <c r="E1423">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1424">
+        <v>90</v>
+      </c>
+      <c r="D1424">
+        <v>80</v>
+      </c>
+      <c r="E1424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1425">
+        <v>80</v>
+      </c>
+      <c r="D1425">
+        <v>100</v>
+      </c>
+      <c r="E1425">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1426">
+        <v>80</v>
+      </c>
+      <c r="D1426">
+        <v>80</v>
+      </c>
+      <c r="E1426">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1427">
+        <v>90</v>
+      </c>
+      <c r="D1427">
+        <v>80</v>
+      </c>
+      <c r="E1427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1428">
+        <v>90</v>
+      </c>
+      <c r="D1428">
+        <v>60</v>
+      </c>
+      <c r="E1428">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1429">
+        <v>90</v>
+      </c>
+      <c r="D1429">
+        <v>100</v>
+      </c>
+      <c r="E1429">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1430">
+        <v>80</v>
+      </c>
+      <c r="D1430">
+        <v>80</v>
+      </c>
+      <c r="E1430">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1431">
+        <v>90</v>
+      </c>
+      <c r="D1431">
+        <v>80</v>
+      </c>
+      <c r="E1431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1432">
+        <v>90</v>
+      </c>
+      <c r="D1432">
+        <v>40</v>
+      </c>
+      <c r="E1432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1433">
+        <v>80</v>
+      </c>
+      <c r="D1433">
+        <v>80</v>
+      </c>
+      <c r="E1433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1434">
+        <v>90</v>
+      </c>
+      <c r="D1434">
+        <v>60</v>
+      </c>
+      <c r="E1434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1435">
+        <v>70</v>
+      </c>
+      <c r="D1435">
+        <v>60</v>
+      </c>
+      <c r="E1435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1436">
+        <v>60</v>
+      </c>
+      <c r="D1436">
+        <v>100</v>
+      </c>
+      <c r="E1436">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1437">
+        <v>30</v>
+      </c>
+      <c r="D1437">
+        <v>40</v>
+      </c>
+      <c r="E1437">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1438">
+        <v>100</v>
+      </c>
+      <c r="D1438">
+        <v>80</v>
+      </c>
+      <c r="E1438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1439">
+        <v>50</v>
+      </c>
+      <c r="D1439">
+        <v>80</v>
+      </c>
+      <c r="E1439">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1440">
+        <v>100</v>
+      </c>
+      <c r="D1440">
+        <v>100</v>
+      </c>
+      <c r="E1440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1441">
+        <v>90</v>
+      </c>
+      <c r="D1441">
+        <v>80</v>
+      </c>
+      <c r="E1441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1442">
+        <v>30</v>
+      </c>
+      <c r="D1442">
+        <v>80</v>
+      </c>
+      <c r="E1442">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1443">
+        <v>50</v>
+      </c>
+      <c r="D1443">
+        <v>60</v>
+      </c>
+      <c r="E1443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1444">
+        <v>80</v>
+      </c>
+      <c r="D1444">
+        <v>80</v>
+      </c>
+      <c r="E1444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1445">
+        <v>60</v>
+      </c>
+      <c r="D1445">
+        <v>40</v>
+      </c>
+      <c r="E1445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1446">
+        <v>50</v>
+      </c>
+      <c r="D1446">
+        <v>80</v>
+      </c>
+      <c r="E1446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1447">
+        <v>100</v>
+      </c>
+      <c r="D1447">
+        <v>100</v>
+      </c>
+      <c r="E1447">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1448">
+        <v>90</v>
+      </c>
+      <c r="D1448">
+        <v>100</v>
+      </c>
+      <c r="E1448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1449">
+        <v>80</v>
+      </c>
+      <c r="D1449">
+        <v>60</v>
+      </c>
+      <c r="E1449">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1450">
+        <v>90</v>
+      </c>
+      <c r="D1450">
+        <v>60</v>
+      </c>
+      <c r="E1450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1451">
+        <v>60</v>
+      </c>
+      <c r="D1451">
+        <v>100</v>
+      </c>
+      <c r="E1451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1452">
+        <v>100</v>
+      </c>
+      <c r="D1452">
+        <v>80</v>
+      </c>
+      <c r="E1452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1453">
+        <v>70</v>
+      </c>
+      <c r="D1453">
+        <v>100</v>
+      </c>
+      <c r="E1453">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1454">
+        <v>40</v>
+      </c>
+      <c r="D1454">
+        <v>40</v>
+      </c>
+      <c r="E1454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1455">
+        <v>90</v>
+      </c>
+      <c r="D1455">
+        <v>60</v>
+      </c>
+      <c r="E1455">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1456">
+        <v>90</v>
+      </c>
+      <c r="D1456">
+        <v>80</v>
+      </c>
+      <c r="E1456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1457">
+        <v>90</v>
+      </c>
+      <c r="D1457">
+        <v>100</v>
+      </c>
+      <c r="E1457">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1458">
+        <v>70</v>
+      </c>
+      <c r="D1458">
+        <v>100</v>
+      </c>
+      <c r="E1458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1459">
+        <v>60</v>
+      </c>
+      <c r="D1459">
+        <v>40</v>
+      </c>
+      <c r="E1459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1460">
+        <v>80</v>
+      </c>
+      <c r="D1460">
+        <v>100</v>
+      </c>
+      <c r="E1460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1461">
+        <v>70</v>
+      </c>
+      <c r="D1461">
+        <v>100</v>
+      </c>
+      <c r="E1461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1462">
+        <v>100</v>
+      </c>
+      <c r="D1462">
+        <v>60</v>
+      </c>
+      <c r="E1462">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1463">
+        <v>90</v>
+      </c>
+      <c r="D1463">
+        <v>80</v>
+      </c>
+      <c r="E1463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1464">
+        <v>100</v>
+      </c>
+      <c r="D1464">
+        <v>80</v>
+      </c>
+      <c r="E1464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1465">
+        <v>70</v>
+      </c>
+      <c r="D1465">
+        <v>80</v>
+      </c>
+      <c r="E1465">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1466">
+        <v>90</v>
+      </c>
+      <c r="D1466">
+        <v>80</v>
+      </c>
+      <c r="E1466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1467">
+        <v>100</v>
+      </c>
+      <c r="D1467">
+        <v>100</v>
+      </c>
+      <c r="E1467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1468">
+        <v>70</v>
+      </c>
+      <c r="D1468">
+        <v>100</v>
+      </c>
+      <c r="E1468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1469">
+        <v>70</v>
+      </c>
+      <c r="D1469">
+        <v>60</v>
+      </c>
+      <c r="E1469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1470">
+        <v>100</v>
+      </c>
+      <c r="D1470">
+        <v>100</v>
+      </c>
+      <c r="E1470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1471">
+        <v>90</v>
+      </c>
+      <c r="D1471">
+        <v>60</v>
+      </c>
+      <c r="E1471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1472">
+        <v>70</v>
+      </c>
+      <c r="D1472">
+        <v>60</v>
+      </c>
+      <c r="E1472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1473">
+        <v>90</v>
+      </c>
+      <c r="D1473">
+        <v>60</v>
+      </c>
+      <c r="E1473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1474">
+        <v>90</v>
+      </c>
+      <c r="D1474">
+        <v>80</v>
+      </c>
+      <c r="E1474">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1475">
+        <v>70</v>
+      </c>
+      <c r="D1475">
+        <v>60</v>
+      </c>
+      <c r="E1475">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1476">
+        <v>80</v>
+      </c>
+      <c r="D1476">
+        <v>40</v>
+      </c>
+      <c r="E1476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1477">
+        <v>80</v>
+      </c>
+      <c r="D1477">
+        <v>40</v>
+      </c>
+      <c r="E1477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1478">
+        <v>100</v>
+      </c>
+      <c r="D1478">
+        <v>60</v>
+      </c>
+      <c r="E1478">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1479">
+        <v>90</v>
+      </c>
+      <c r="D1479">
+        <v>80</v>
+      </c>
+      <c r="E1479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1480">
+        <v>100</v>
+      </c>
+      <c r="D1480">
+        <v>80</v>
+      </c>
+      <c r="E1480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1481">
+        <v>100</v>
+      </c>
+      <c r="D1481">
+        <v>100</v>
+      </c>
+      <c r="E1481">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1482">
+        <v>90</v>
+      </c>
+      <c r="D1482">
+        <v>100</v>
+      </c>
+      <c r="E1482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1483">
+        <v>100</v>
+      </c>
+      <c r="D1483">
+        <v>100</v>
+      </c>
+      <c r="E1483">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1484">
+        <v>80</v>
+      </c>
+      <c r="D1484">
+        <v>60</v>
+      </c>
+      <c r="E1484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1485">
+        <v>80</v>
+      </c>
+      <c r="D1485">
+        <v>60</v>
+      </c>
+      <c r="E1485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1486">
+        <v>80</v>
+      </c>
+      <c r="D1486">
+        <v>100</v>
+      </c>
+      <c r="E1486">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1487">
+        <v>100</v>
+      </c>
+      <c r="D1487">
+        <v>100</v>
+      </c>
+      <c r="E1487">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1488">
+        <v>100</v>
+      </c>
+      <c r="D1488">
+        <v>100</v>
+      </c>
+      <c r="E1488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1489">
+        <v>80</v>
+      </c>
+      <c r="D1489">
+        <v>100</v>
+      </c>
+      <c r="E1489">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1490">
+        <v>90</v>
+      </c>
+      <c r="D1490">
+        <v>80</v>
+      </c>
+      <c r="E1490">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1491">
+        <v>100</v>
+      </c>
+      <c r="D1491">
+        <v>100</v>
+      </c>
+      <c r="E1491">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1492">
+        <v>30</v>
+      </c>
+      <c r="D1492">
+        <v>80</v>
+      </c>
+      <c r="E1492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1493">
+        <v>70</v>
+      </c>
+      <c r="D1493">
+        <v>60</v>
+      </c>
+      <c r="E1493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1494">
+        <v>20</v>
+      </c>
+      <c r="D1494">
+        <v>60</v>
+      </c>
+      <c r="E1494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1495">
+        <v>80</v>
+      </c>
+      <c r="D1495">
+        <v>100</v>
+      </c>
+      <c r="E1495">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1496">
+        <v>100</v>
+      </c>
+      <c r="D1496">
+        <v>100</v>
+      </c>
+      <c r="E1496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1497">
+        <v>50</v>
+      </c>
+      <c r="D1497">
+        <v>40</v>
+      </c>
+      <c r="E1497">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1498">
+        <v>90</v>
+      </c>
+      <c r="D1498">
+        <v>60</v>
+      </c>
+      <c r="E1498">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1499">
+        <v>100</v>
+      </c>
+      <c r="D1499">
+        <v>80</v>
+      </c>
+      <c r="E1499">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1500">
+        <v>100</v>
+      </c>
+      <c r="D1500">
+        <v>100</v>
+      </c>
+      <c r="E1500">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1501">
+        <v>90</v>
+      </c>
+      <c r="D1501">
+        <v>80</v>
+      </c>
+      <c r="E1501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1502">
+        <v>90</v>
+      </c>
+      <c r="D1502">
+        <v>60</v>
+      </c>
+      <c r="E1502">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1503">
+        <v>100</v>
+      </c>
+      <c r="D1503">
+        <v>60</v>
+      </c>
+      <c r="E1503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1504">
+        <v>100</v>
+      </c>
+      <c r="D1504">
+        <v>100</v>
+      </c>
+      <c r="E1504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1505">
+        <v>90</v>
+      </c>
+      <c r="D1505">
+        <v>100</v>
+      </c>
+      <c r="E1505">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1506">
+        <v>60</v>
+      </c>
+      <c r="D1506">
+        <v>80</v>
+      </c>
+      <c r="E1506">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1507">
+        <v>100</v>
+      </c>
+      <c r="D1507">
+        <v>100</v>
+      </c>
+      <c r="E1507">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1508">
+        <v>100</v>
+      </c>
+      <c r="D1508">
+        <v>60</v>
+      </c>
+      <c r="E1508">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1509">
+        <v>50</v>
+      </c>
+      <c r="D1509">
+        <v>60</v>
+      </c>
+      <c r="E1509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1510">
+        <v>80</v>
+      </c>
+      <c r="D1510">
+        <v>40</v>
+      </c>
+      <c r="E1510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1511">
+        <v>60</v>
+      </c>
+      <c r="D1511">
+        <v>40</v>
+      </c>
+      <c r="E1511">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1512">
+        <v>90</v>
+      </c>
+      <c r="D1512">
+        <v>80</v>
+      </c>
+      <c r="E1512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1513">
+        <v>80</v>
+      </c>
+      <c r="D1513">
+        <v>60</v>
+      </c>
+      <c r="E1513">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1514">
+        <v>100</v>
+      </c>
+      <c r="D1514">
+        <v>80</v>
+      </c>
+      <c r="E1514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1515">
+        <v>50</v>
+      </c>
+      <c r="D1515">
+        <v>80</v>
+      </c>
+      <c r="E1515">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1516">
+        <v>60</v>
+      </c>
+      <c r="D1516">
+        <v>60</v>
+      </c>
+      <c r="E1516">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1517">
+        <v>90</v>
+      </c>
+      <c r="D1517">
+        <v>80</v>
+      </c>
+      <c r="E1517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1518">
+        <v>70</v>
+      </c>
+      <c r="D1518">
+        <v>100</v>
+      </c>
+      <c r="E1518">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1519">
+        <v>0</v>
+      </c>
+      <c r="D1519">
+        <v>40</v>
+      </c>
+      <c r="E1519">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1520">
+        <v>0</v>
+      </c>
+      <c r="D1520">
+        <v>60</v>
+      </c>
+      <c r="E1520">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1521">
+        <v>80</v>
+      </c>
+      <c r="D1521">
+        <v>80</v>
+      </c>
+      <c r="E1521">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1522">
+        <v>90</v>
+      </c>
+      <c r="D1522">
+        <v>60</v>
+      </c>
+      <c r="E1522">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1523">
+        <v>40</v>
+      </c>
+      <c r="D1523">
+        <v>20</v>
+      </c>
+      <c r="E1523">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1524">
+        <v>100</v>
+      </c>
+      <c r="D1524">
+        <v>40</v>
+      </c>
+      <c r="E1524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1525">
+        <v>80</v>
+      </c>
+      <c r="D1525">
+        <v>100</v>
+      </c>
+      <c r="E1525">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1526">
+        <v>90</v>
+      </c>
+      <c r="D1526">
+        <v>80</v>
+      </c>
+      <c r="E1526">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1527">
+        <v>60</v>
+      </c>
+      <c r="D1527">
+        <v>80</v>
+      </c>
+      <c r="E1527">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1528">
+        <v>50</v>
+      </c>
+      <c r="D1528">
+        <v>100</v>
+      </c>
+      <c r="E1528">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1529">
+        <v>90</v>
+      </c>
+      <c r="D1529">
+        <v>80</v>
+      </c>
+      <c r="E1529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1530">
+        <v>100</v>
+      </c>
+      <c r="D1530">
+        <v>100</v>
+      </c>
+      <c r="E1530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1531">
+        <v>80</v>
+      </c>
+      <c r="D1531">
+        <v>60</v>
+      </c>
+      <c r="E1531">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1532">
+        <v>50</v>
+      </c>
+      <c r="D1532">
+        <v>60</v>
+      </c>
+      <c r="E1532">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1533">
+        <v>100</v>
+      </c>
+      <c r="D1533">
+        <v>80</v>
+      </c>
+      <c r="E1533">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1534">
+        <v>80</v>
+      </c>
+      <c r="D1534">
+        <v>100</v>
+      </c>
+      <c r="E1534">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1535">
+        <v>100</v>
+      </c>
+      <c r="D1535">
+        <v>100</v>
+      </c>
+      <c r="E1535">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1536">
+        <v>100</v>
+      </c>
+      <c r="D1536">
+        <v>80</v>
+      </c>
+      <c r="E1536">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1537">
+        <v>90</v>
+      </c>
+      <c r="D1537">
+        <v>80</v>
+      </c>
+      <c r="E1537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1538">
+        <v>100</v>
+      </c>
+      <c r="D1538">
+        <v>100</v>
+      </c>
+      <c r="E1538">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1539">
+        <v>60</v>
+      </c>
+      <c r="D1539">
+        <v>80</v>
+      </c>
+      <c r="E1539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1540">
+        <v>80</v>
+      </c>
+      <c r="D1540">
+        <v>60</v>
+      </c>
+      <c r="E1540">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1541">
+        <v>100</v>
+      </c>
+      <c r="D1541">
+        <v>80</v>
+      </c>
+      <c r="E1541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1542">
+        <v>90</v>
+      </c>
+      <c r="D1542">
+        <v>40</v>
+      </c>
+      <c r="E1542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1543">
+        <v>100</v>
+      </c>
+      <c r="D1543">
+        <v>100</v>
+      </c>
+      <c r="E1543">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1544">
+        <v>90</v>
+      </c>
+      <c r="D1544">
+        <v>80</v>
+      </c>
+      <c r="E1544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1545">
+        <v>100</v>
+      </c>
+      <c r="D1545">
+        <v>100</v>
+      </c>
+      <c r="E1545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1546">
+        <v>100</v>
+      </c>
+      <c r="D1546">
+        <v>40</v>
+      </c>
+      <c r="E1546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1547">
+        <v>0</v>
+      </c>
+      <c r="D1547">
+        <v>60</v>
+      </c>
+      <c r="E1547">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1548">
+        <v>60</v>
+      </c>
+      <c r="D1548">
+        <v>80</v>
+      </c>
+      <c r="E1548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1549">
+        <v>50</v>
+      </c>
+      <c r="D1549">
+        <v>100</v>
+      </c>
+      <c r="E1549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1550">
+        <v>100</v>
+      </c>
+      <c r="D1550">
+        <v>100</v>
+      </c>
+      <c r="E1550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1551">
+        <v>60</v>
+      </c>
+      <c r="D1551">
+        <v>80</v>
+      </c>
+      <c r="E1551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1552">
+        <v>100</v>
+      </c>
+      <c r="D1552">
+        <v>80</v>
+      </c>
+      <c r="E1552">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1553">
+        <v>60</v>
+      </c>
+      <c r="D1553">
+        <v>60</v>
+      </c>
+      <c r="E1553">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1554">
+        <v>100</v>
+      </c>
+      <c r="D1554">
+        <v>100</v>
+      </c>
+      <c r="E1554">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1555">
+        <v>70</v>
+      </c>
+      <c r="D1555">
+        <v>100</v>
+      </c>
+      <c r="E1555">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1556">
+        <v>100</v>
+      </c>
+      <c r="D1556">
+        <v>100</v>
+      </c>
+      <c r="E1556">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1557">
+        <v>80</v>
+      </c>
+      <c r="D1557">
+        <v>80</v>
+      </c>
+      <c r="E1557">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1558">
+        <v>60</v>
+      </c>
+      <c r="D1558">
+        <v>40</v>
+      </c>
+      <c r="E1558">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1559">
+        <v>100</v>
+      </c>
+      <c r="D1559">
+        <v>60</v>
+      </c>
+      <c r="E1559">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1560">
+        <v>90</v>
+      </c>
+      <c r="D1560">
+        <v>80</v>
+      </c>
+      <c r="E1560">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1561">
+        <v>90</v>
+      </c>
+      <c r="D1561">
+        <v>100</v>
+      </c>
+      <c r="E1561">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1562">
+        <v>100</v>
+      </c>
+      <c r="D1562">
+        <v>60</v>
+      </c>
+      <c r="E1562">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1563">
+        <v>100</v>
+      </c>
+      <c r="D1563">
+        <v>100</v>
+      </c>
+      <c r="E1563">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1564">
+        <v>80</v>
+      </c>
+      <c r="D1564">
+        <v>80</v>
+      </c>
+      <c r="E1564">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1565">
+        <v>60</v>
+      </c>
+      <c r="D1565">
+        <v>60</v>
+      </c>
+      <c r="E1565">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1566">
+        <v>90</v>
+      </c>
+      <c r="D1566">
+        <v>40</v>
+      </c>
+      <c r="E1566">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1567">
+        <v>40</v>
+      </c>
+      <c r="D1567">
+        <v>40</v>
+      </c>
+      <c r="E1567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1568">
+        <v>100</v>
+      </c>
+      <c r="D1568">
+        <v>100</v>
+      </c>
+      <c r="E1568">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1569">
+        <v>80</v>
+      </c>
+      <c r="D1569">
+        <v>80</v>
+      </c>
+      <c r="E1569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1570">
+        <v>80</v>
+      </c>
+      <c r="D1570">
+        <v>100</v>
+      </c>
+      <c r="E1570">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1571">
+        <v>100</v>
+      </c>
+      <c r="D1571">
+        <v>20</v>
+      </c>
+      <c r="E1571">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1572">
+        <v>100</v>
+      </c>
+      <c r="D1572">
+        <v>60</v>
+      </c>
+      <c r="E1572">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1573">
+        <v>100</v>
+      </c>
+      <c r="D1573">
+        <v>100</v>
+      </c>
+      <c r="E1573">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1574">
+        <v>70</v>
+      </c>
+      <c r="D1574">
+        <v>80</v>
+      </c>
+      <c r="E1574">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1575">
+        <v>30</v>
+      </c>
+      <c r="D1575">
+        <v>80</v>
+      </c>
+      <c r="E1575">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1576">
+        <v>80</v>
+      </c>
+      <c r="D1576">
+        <v>80</v>
+      </c>
+      <c r="E1576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1577">
+        <v>90</v>
+      </c>
+      <c r="D1577">
+        <v>60</v>
+      </c>
+      <c r="E1577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1578">
+        <v>50</v>
+      </c>
+      <c r="D1578">
+        <v>80</v>
+      </c>
+      <c r="E1578">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1579">
+        <v>10</v>
+      </c>
+      <c r="D1579">
+        <v>80</v>
+      </c>
+      <c r="E1579">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1580">
+        <v>80</v>
+      </c>
+      <c r="D1580">
+        <v>80</v>
+      </c>
+      <c r="E1580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1581">
+        <v>80</v>
+      </c>
+      <c r="D1581">
+        <v>100</v>
+      </c>
+      <c r="E1581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1582">
+        <v>40</v>
+      </c>
+      <c r="D1582">
+        <v>60</v>
+      </c>
+      <c r="E1582">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1583">
+        <v>10</v>
+      </c>
+      <c r="D1583">
+        <v>40</v>
+      </c>
+      <c r="E1583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1584">
+        <v>30</v>
+      </c>
+      <c r="D1584">
+        <v>60</v>
+      </c>
+      <c r="E1584">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1585">
+        <v>90</v>
+      </c>
+      <c r="D1585">
+        <v>100</v>
+      </c>
+      <c r="E1585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1586">
+        <v>30</v>
+      </c>
+      <c r="D1586">
+        <v>100</v>
+      </c>
+      <c r="E1586">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1587">
+        <v>30</v>
+      </c>
+      <c r="D1587">
+        <v>100</v>
+      </c>
+      <c r="E1587">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1588">
+        <v>60</v>
+      </c>
+      <c r="D1588">
+        <v>80</v>
+      </c>
+      <c r="E1588">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1589">
+        <v>90</v>
+      </c>
+      <c r="D1589">
+        <v>80</v>
+      </c>
+      <c r="E1589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1590">
+        <v>50</v>
+      </c>
+      <c r="D1590">
+        <v>80</v>
+      </c>
+      <c r="E1590">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1591">
+        <v>60</v>
+      </c>
+      <c r="D1591">
+        <v>40</v>
+      </c>
+      <c r="E1591">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1592">
+        <v>60</v>
+      </c>
+      <c r="D1592">
+        <v>80</v>
+      </c>
+      <c r="E1592">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1593">
+        <v>30</v>
+      </c>
+      <c r="D1593">
+        <v>40</v>
+      </c>
+      <c r="E1593">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1594">
+        <v>40</v>
+      </c>
+      <c r="D1594">
+        <v>20</v>
+      </c>
+      <c r="E1594">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1595">
+        <v>0</v>
+      </c>
+      <c r="D1595">
+        <v>0</v>
+      </c>
+      <c r="E1595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1596">
+        <v>70</v>
+      </c>
+      <c r="D1596">
+        <v>100</v>
+      </c>
+      <c r="E1596">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1597">
+        <v>90</v>
+      </c>
+      <c r="D1597">
+        <v>80</v>
+      </c>
+      <c r="E1597">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1598">
+        <v>80</v>
+      </c>
+      <c r="D1598">
+        <v>100</v>
+      </c>
+      <c r="E1598">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1599">
+        <v>90</v>
+      </c>
+      <c r="D1599">
+        <v>80</v>
+      </c>
+      <c r="E1599">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1600">
+        <v>60</v>
+      </c>
+      <c r="D1600">
+        <v>100</v>
+      </c>
+      <c r="E1600">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1601">
+        <v>100</v>
+      </c>
+      <c r="D1601">
+        <v>100</v>
+      </c>
+      <c r="E1601">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1602">
+        <v>60</v>
+      </c>
+      <c r="D1602">
+        <v>60</v>
+      </c>
+      <c r="E1602">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1603">
+        <v>80</v>
+      </c>
+      <c r="D1603">
+        <v>60</v>
+      </c>
+      <c r="E1603">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1604">
+        <v>90</v>
+      </c>
+      <c r="D1604">
+        <v>100</v>
+      </c>
+      <c r="E1604">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1605">
+        <v>100</v>
+      </c>
+      <c r="D1605">
+        <v>80</v>
+      </c>
+      <c r="E1605">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1606">
+        <v>0</v>
+      </c>
+      <c r="D1606">
+        <v>0</v>
+      </c>
+      <c r="E1606">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1607">
+        <v>70</v>
+      </c>
+      <c r="D1607">
+        <v>40</v>
+      </c>
+      <c r="E1607">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1608">
+        <v>60</v>
+      </c>
+      <c r="D1608">
+        <v>40</v>
+      </c>
+      <c r="E1608">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1609">
+        <v>100</v>
+      </c>
+      <c r="D1609">
+        <v>80</v>
+      </c>
+      <c r="E1609">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1610">
+        <v>70</v>
+      </c>
+      <c r="D1610">
+        <v>40</v>
+      </c>
+      <c r="E1610">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1611">
+        <v>20</v>
+      </c>
+      <c r="D1611">
+        <v>60</v>
+      </c>
+      <c r="E1611">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1612">
+        <v>40</v>
+      </c>
+      <c r="D1612">
+        <v>80</v>
+      </c>
+      <c r="E1612">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1613">
+        <v>90</v>
+      </c>
+      <c r="D1613">
+        <v>60</v>
+      </c>
+      <c r="E1613">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1614">
+        <v>80</v>
+      </c>
+      <c r="D1614">
+        <v>100</v>
+      </c>
+      <c r="E1614">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1615">
+        <v>80</v>
+      </c>
+      <c r="E1615">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
